--- a/raw_data/20200818_saline/20200818_Sensor3_Test_56.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_56.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6585DB7B-E5CE-4C37-9234-66574E0521E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>50057.695622</v>
+        <v>50057.695621999999</v>
       </c>
       <c r="B2" s="1">
-        <v>13.904915</v>
+        <v>13.904915000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1149.150000</v>
+        <v>1149.1500000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-255.273000</v>
+        <v>-255.273</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>50067.749033</v>
@@ -496,285 +912,285 @@
         <v>13.907708</v>
       </c>
       <c r="H2" s="1">
-        <v>1169.680000</v>
+        <v>1169.68</v>
       </c>
       <c r="I2" s="1">
-        <v>-214.065000</v>
+        <v>-214.065</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>50077.858027</v>
+        <v>50077.858027000002</v>
       </c>
       <c r="L2" s="1">
-        <v>13.910516</v>
+        <v>13.910515999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1196.910000</v>
+        <v>1196.9100000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-149.367000</v>
+        <v>-149.36699999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>50088.009120</v>
+        <v>50088.009120000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>13.913336</v>
+        <v>13.913335999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1204.610000</v>
+        <v>1204.6099999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.495000</v>
+        <v>-127.495</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>50098.564977</v>
+        <v>50098.564977000002</v>
       </c>
       <c r="V2" s="1">
-        <v>13.916268</v>
+        <v>13.916268000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1211.770000</v>
+        <v>1211.77</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.970000</v>
+        <v>-106.97</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>50108.925411</v>
+        <v>50108.925410999997</v>
       </c>
       <c r="AA2" s="1">
         <v>13.919146</v>
       </c>
       <c r="AB2" s="1">
-        <v>1219.230000</v>
+        <v>1219.23</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.240400</v>
+        <v>-90.240399999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>50119.511524</v>
+        <v>50119.511524000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>13.922087</v>
+        <v>13.922086999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1223.540000</v>
+        <v>1223.54</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.942000</v>
+        <v>-85.941999999999993</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>50129.915645</v>
+        <v>50129.915645000001</v>
       </c>
       <c r="AK2" s="1">
         <v>13.924977</v>
       </c>
       <c r="AL2" s="1">
-        <v>1230.740000</v>
+        <v>1230.74</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.619400</v>
+        <v>-89.619399999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>50140.507177</v>
       </c>
       <c r="AP2" s="1">
-        <v>13.927919</v>
+        <v>13.927918999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1238.690000</v>
+        <v>1238.69</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.855000</v>
+        <v>-101.855</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>50151.556554</v>
+        <v>50151.556554000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>13.930988</v>
+        <v>13.930987999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.461000</v>
+        <v>-121.461</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>50163.019628</v>
+        <v>50163.019628000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>13.934172</v>
       </c>
       <c r="BA2" s="1">
-        <v>1257.180000</v>
+        <v>1257.18</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.191000</v>
+        <v>-139.191</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>50173.893389</v>
+        <v>50173.893388999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>13.937193</v>
+        <v>13.937193000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1297.630000</v>
+        <v>1297.6300000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.073000</v>
+        <v>-222.07300000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>50184.982446</v>
+        <v>50184.982446000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>13.940273</v>
+        <v>13.940272999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1367.850000</v>
+        <v>1367.85</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.802000</v>
+        <v>-359.80200000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>50195.669249</v>
+        <v>50195.669248999999</v>
       </c>
       <c r="BO2" s="1">
         <v>13.943241</v>
       </c>
       <c r="BP2" s="1">
-        <v>1483.080000</v>
+        <v>1483.08</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-584.112000</v>
+        <v>-584.11199999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>50206.053491</v>
+        <v>50206.053490999999</v>
       </c>
       <c r="BT2" s="1">
         <v>13.946126</v>
       </c>
       <c r="BU2" s="1">
-        <v>1615.790000</v>
+        <v>1615.79</v>
       </c>
       <c r="BV2" s="1">
-        <v>-836.922000</v>
+        <v>-836.92200000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>50217.082567</v>
+        <v>50217.082566999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>13.949190</v>
+        <v>13.94919</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1769.950000</v>
+        <v>1769.95</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1112.590000</v>
+        <v>-1112.5899999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>50227.714806</v>
+        <v>50227.714806000004</v>
       </c>
       <c r="CD2" s="1">
         <v>13.952143</v>
       </c>
       <c r="CE2" s="1">
-        <v>2191.820000</v>
+        <v>2191.8200000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1780.960000</v>
+        <v>-1780.96</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>50058.094933</v>
       </c>
       <c r="B3" s="1">
-        <v>13.905026</v>
+        <v>13.905025999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1148.880000</v>
+        <v>1148.8800000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-255.301000</v>
+        <v>-255.30099999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>50068.093258</v>
+        <v>50068.093258000001</v>
       </c>
       <c r="G3" s="1">
         <v>13.907804</v>
       </c>
       <c r="H3" s="1">
-        <v>1169.350000</v>
+        <v>1169.3499999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-214.243000</v>
+        <v>-214.24299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>50078.269179</v>
+        <v>50078.269179000003</v>
       </c>
       <c r="L3" s="1">
-        <v>13.910630</v>
+        <v>13.910629999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1196.830000</v>
+        <v>1196.83</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.129000</v>
+        <v>-149.12899999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>50088.435049</v>
@@ -783,225 +1199,225 @@
         <v>13.913454</v>
       </c>
       <c r="R3" s="1">
-        <v>1204.640000</v>
+        <v>1204.6400000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.503000</v>
+        <v>-127.503</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>50098.969217</v>
+        <v>50098.969216999998</v>
       </c>
       <c r="V3" s="1">
-        <v>13.916380</v>
+        <v>13.91638</v>
       </c>
       <c r="W3" s="1">
-        <v>1211.700000</v>
+        <v>1211.7</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.920000</v>
+        <v>-106.92</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>50109.309843</v>
+        <v>50109.309843000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>13.919253</v>
+        <v>13.919252999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1219.130000</v>
+        <v>1219.1300000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.167000</v>
+        <v>-90.167000000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>50119.880084</v>
+        <v>50119.880083999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>13.922189</v>
+        <v>13.922188999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1223.710000</v>
+        <v>1223.71</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.948200</v>
+        <v>-85.9482</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>50130.310918</v>
+        <v>50130.310918000003</v>
       </c>
       <c r="AK3" s="1">
         <v>13.925086</v>
       </c>
       <c r="AL3" s="1">
-        <v>1230.720000</v>
+        <v>1230.72</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.575900</v>
+        <v>-89.575900000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>50140.912446</v>
+        <v>50140.912446000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>13.928031</v>
+        <v>13.928031000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1238.640000</v>
+        <v>1238.6400000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.814000</v>
+        <v>-101.81399999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>50152.313450</v>
+        <v>50152.313450000001</v>
       </c>
       <c r="AU3" s="1">
         <v>13.931198</v>
       </c>
       <c r="AV3" s="1">
-        <v>1248.720000</v>
+        <v>1248.72</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.476000</v>
+        <v>-121.476</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>50163.408955</v>
+        <v>50163.408954999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>13.934280</v>
+        <v>13.934279999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1257.200000</v>
+        <v>1257.2</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.227000</v>
+        <v>-139.227</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>50174.287245</v>
       </c>
       <c r="BE3" s="1">
-        <v>13.937302</v>
+        <v>13.937302000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1297.650000</v>
+        <v>1297.6500000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.046000</v>
+        <v>-222.04599999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>50185.357950</v>
+        <v>50185.357949999998</v>
       </c>
       <c r="BJ3" s="1">
         <v>13.940377</v>
       </c>
       <c r="BK3" s="1">
-        <v>1367.830000</v>
+        <v>1367.83</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.795000</v>
+        <v>-359.79500000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>50196.409280</v>
+        <v>50196.40928</v>
       </c>
       <c r="BO3" s="1">
-        <v>13.943447</v>
+        <v>13.943447000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1483.150000</v>
+        <v>1483.15</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-584.084000</v>
+        <v>-584.08399999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>50206.801955</v>
+        <v>50206.801955000003</v>
       </c>
       <c r="BT3" s="1">
         <v>13.946334</v>
       </c>
       <c r="BU3" s="1">
-        <v>1615.910000</v>
+        <v>1615.91</v>
       </c>
       <c r="BV3" s="1">
-        <v>-837.110000</v>
+        <v>-837.11</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>50217.259636</v>
+        <v>50217.259636000003</v>
       </c>
       <c r="BY3" s="1">
         <v>13.949239</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1769.960000</v>
+        <v>1769.96</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1112.560000</v>
+        <v>-1112.56</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>50228.286661</v>
+        <v>50228.286660999998</v>
       </c>
       <c r="CD3" s="1">
         <v>13.952302</v>
       </c>
       <c r="CE3" s="1">
-        <v>2193.900000</v>
+        <v>2193.9</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1780.210000</v>
+        <v>-1780.21</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>50058.522949</v>
+        <v>50058.522948999998</v>
       </c>
       <c r="B4" s="1">
-        <v>13.905145</v>
+        <v>13.905144999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>1148.710000</v>
+        <v>1148.71</v>
       </c>
       <c r="D4" s="1">
-        <v>-255.496000</v>
+        <v>-255.49600000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>50068.503956</v>
@@ -1010,241 +1426,241 @@
         <v>13.907918</v>
       </c>
       <c r="H4" s="1">
-        <v>1169.220000</v>
+        <v>1169.22</v>
       </c>
       <c r="I4" s="1">
-        <v>-214.318000</v>
+        <v>-214.31800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>50078.584635</v>
+        <v>50078.584634999999</v>
       </c>
       <c r="L4" s="1">
-        <v>13.910718</v>
+        <v>13.910717999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1197.070000</v>
+        <v>1197.07</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.156000</v>
+        <v>-149.15600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>50088.753613</v>
+        <v>50088.753613000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>13.913543</v>
+        <v>13.913543000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1204.620000</v>
+        <v>1204.6199999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.556000</v>
+        <v>-127.556</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>50099.314463</v>
+        <v>50099.314463000002</v>
       </c>
       <c r="V4" s="1">
-        <v>13.916476</v>
+        <v>13.916475999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1211.690000</v>
+        <v>1211.69</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.969000</v>
+        <v>-106.96899999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>50109.657040</v>
+        <v>50109.657039999998</v>
       </c>
       <c r="AA4" s="1">
         <v>13.919349</v>
       </c>
       <c r="AB4" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.160000</v>
+        <v>-90.16</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>50120.222327</v>
+        <v>50120.222327000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>13.922284</v>
+        <v>13.922283999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1223.630000</v>
+        <v>1223.6300000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.934500</v>
+        <v>-85.9345</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>50131.003369</v>
+        <v>50131.003368999998</v>
       </c>
       <c r="AK4" s="1">
         <v>13.925279</v>
       </c>
       <c r="AL4" s="1">
-        <v>1230.760000</v>
+        <v>1230.76</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.586800</v>
+        <v>-89.586799999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>50141.628135</v>
+        <v>50141.628134999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>13.928230</v>
+        <v>13.928229999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1238.690000</v>
+        <v>1238.69</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.854000</v>
+        <v>-101.854</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>50152.679194</v>
+        <v>50152.679193999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>13.931300</v>
+        <v>13.9313</v>
       </c>
       <c r="AV4" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.487000</v>
+        <v>-121.48699999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>50163.767594</v>
+        <v>50163.767593999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>13.934380</v>
+        <v>13.934380000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1257.160000</v>
+        <v>1257.1600000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.194000</v>
+        <v>-139.19399999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>50174.647805</v>
+        <v>50174.647805000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>13.937402</v>
+        <v>13.937402000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1297.620000</v>
+        <v>1297.6199999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.057000</v>
+        <v>-222.05699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>50186.039421</v>
+        <v>50186.039421000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>13.940567</v>
       </c>
       <c r="BK4" s="1">
-        <v>1367.850000</v>
+        <v>1367.85</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.835000</v>
+        <v>-359.83499999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>50196.518895</v>
+        <v>50196.518895000001</v>
       </c>
       <c r="BO4" s="1">
         <v>13.943477</v>
       </c>
       <c r="BP4" s="1">
-        <v>1483.130000</v>
+        <v>1483.13</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-584.081000</v>
+        <v>-584.08100000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>50206.920498</v>
+        <v>50206.920497999999</v>
       </c>
       <c r="BT4" s="1">
         <v>13.946367</v>
       </c>
       <c r="BU4" s="1">
-        <v>1615.830000</v>
+        <v>1615.83</v>
       </c>
       <c r="BV4" s="1">
-        <v>-837.072000</v>
+        <v>-837.072</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>50217.710964</v>
+        <v>50217.710963999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>13.949364</v>
+        <v>13.949363999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1769.900000</v>
+        <v>1769.9</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1112.750000</v>
+        <v>-1112.75</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>50228.804982</v>
+        <v>50228.804982000001</v>
       </c>
       <c r="CD4" s="1">
         <v>13.952446</v>
       </c>
       <c r="CE4" s="1">
-        <v>2193.250000</v>
+        <v>2193.25</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1781.020000</v>
+        <v>-1781.02</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>50058.766485</v>
       </c>
@@ -1252,13 +1668,13 @@
         <v>13.905213</v>
       </c>
       <c r="C5" s="1">
-        <v>1149.060000</v>
+        <v>1149.06</v>
       </c>
       <c r="D5" s="1">
-        <v>-255.230000</v>
+        <v>-255.23</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>50068.780712</v>
@@ -1267,73 +1683,73 @@
         <v>13.907995</v>
       </c>
       <c r="H5" s="1">
-        <v>1169.390000</v>
+        <v>1169.3900000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-213.864000</v>
+        <v>-213.864</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>50078.929356</v>
+        <v>50078.929356000001</v>
       </c>
       <c r="L5" s="1">
         <v>13.910814</v>
       </c>
       <c r="M5" s="1">
-        <v>1196.820000</v>
+        <v>1196.82</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.309000</v>
+        <v>-149.309</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>50089.118391</v>
+        <v>50089.118391000004</v>
       </c>
       <c r="Q5" s="1">
         <v>13.913644</v>
       </c>
       <c r="R5" s="1">
-        <v>1204.610000</v>
+        <v>1204.6099999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.561000</v>
+        <v>-127.56100000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>50099.657199</v>
+        <v>50099.657199000001</v>
       </c>
       <c r="V5" s="1">
-        <v>13.916571</v>
+        <v>13.916570999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1211.760000</v>
+        <v>1211.76</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.922000</v>
+        <v>-106.922</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>50110.355875</v>
+        <v>50110.355875000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>13.919543</v>
+        <v>13.919543000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1219.120000</v>
+        <v>1219.1199999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.149000</v>
+        <v>-90.149000000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>50120.908292</v>
@@ -1342,88 +1758,88 @@
         <v>13.922475</v>
       </c>
       <c r="AG5" s="1">
-        <v>1223.620000</v>
+        <v>1223.6199999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.905900</v>
+        <v>-85.905900000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>50131.350566</v>
+        <v>50131.350566000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>13.925375</v>
+        <v>13.925375000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1230.740000</v>
+        <v>1230.74</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.600200</v>
+        <v>-89.600200000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>50142.066103</v>
+        <v>50142.066102999997</v>
       </c>
       <c r="AP5" s="1">
         <v>13.928352</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1238.650000</v>
+        <v>1238.6500000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.824000</v>
+        <v>-101.824</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>50153.045544</v>
+        <v>50153.045544000001</v>
       </c>
       <c r="AU5" s="1">
         <v>13.931402</v>
       </c>
       <c r="AV5" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.506000</v>
+        <v>-121.506</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>50164.431209</v>
+        <v>50164.431209000002</v>
       </c>
       <c r="AZ5" s="1">
         <v>13.934564</v>
       </c>
       <c r="BA5" s="1">
-        <v>1257.170000</v>
+        <v>1257.17</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.211000</v>
+        <v>-139.21100000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>50175.319916</v>
       </c>
       <c r="BE5" s="1">
-        <v>13.937589</v>
+        <v>13.937588999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1297.640000</v>
+        <v>1297.6400000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.075000</v>
+        <v>-222.07499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>50186.148578</v>
@@ -1432,452 +1848,452 @@
         <v>13.940597</v>
       </c>
       <c r="BK5" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.810000</v>
+        <v>-359.81</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>50196.943998</v>
+        <v>50196.943998000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>13.943596</v>
+        <v>13.943595999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1483.110000</v>
+        <v>1483.11</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-584.225000</v>
+        <v>-584.22500000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>50207.360448</v>
+        <v>50207.360447999999</v>
       </c>
       <c r="BT5" s="1">
         <v>13.946489</v>
       </c>
       <c r="BU5" s="1">
-        <v>1615.790000</v>
+        <v>1615.79</v>
       </c>
       <c r="BV5" s="1">
-        <v>-837.136000</v>
+        <v>-837.13599999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>50218.134548</v>
+        <v>50218.134548000002</v>
       </c>
       <c r="BY5" s="1">
         <v>13.949482</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1770.120000</v>
+        <v>1770.12</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1112.550000</v>
+        <v>-1112.55</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>50229.357523</v>
+        <v>50229.357522999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>13.952599</v>
+        <v>13.952598999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2192.030000</v>
+        <v>2192.0300000000002</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1781.010000</v>
+        <v>-1781.01</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>50059.100330</v>
+        <v>50059.100330000001</v>
       </c>
       <c r="B6" s="1">
         <v>13.905306</v>
       </c>
       <c r="C6" s="1">
-        <v>1148.990000</v>
+        <v>1148.99</v>
       </c>
       <c r="D6" s="1">
-        <v>-255.340000</v>
+        <v>-255.34</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>50069.124936</v>
       </c>
       <c r="G6" s="1">
-        <v>13.908090</v>
+        <v>13.90809</v>
       </c>
       <c r="H6" s="1">
-        <v>1169.820000</v>
+        <v>1169.82</v>
       </c>
       <c r="I6" s="1">
-        <v>-214.474000</v>
+        <v>-214.47399999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>50079.274602</v>
+        <v>50079.274601999998</v>
       </c>
       <c r="L6" s="1">
-        <v>13.910910</v>
+        <v>13.910909999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1196.730000</v>
+        <v>1196.73</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.230000</v>
+        <v>-149.22999999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>50089.467362</v>
+        <v>50089.467362000003</v>
       </c>
       <c r="Q6" s="1">
         <v>13.913741</v>
       </c>
       <c r="R6" s="1">
-        <v>1204.540000</v>
+        <v>1204.54</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.513000</v>
+        <v>-127.51300000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>50100.344623</v>
+        <v>50100.344622999997</v>
       </c>
       <c r="V6" s="1">
         <v>13.916762</v>
       </c>
       <c r="W6" s="1">
-        <v>1211.810000</v>
+        <v>1211.81</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.923000</v>
+        <v>-106.923</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>50110.705088</v>
+        <v>50110.705088000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>13.919640</v>
+        <v>13.919639999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1219.170000</v>
+        <v>1219.17</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.176100</v>
+        <v>-90.176100000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>50121.257442</v>
+        <v>50121.257442000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>13.922572</v>
+        <v>13.922572000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1223.740000</v>
+        <v>1223.74</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.866300</v>
+        <v>-85.866299999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>50131.700737</v>
+        <v>50131.700736999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>13.925472</v>
+        <v>13.925471999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1230.710000</v>
+        <v>1230.71</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.611400</v>
+        <v>-89.611400000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>50142.709414</v>
+        <v>50142.709413999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>13.928530</v>
+        <v>13.92853</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1238.670000</v>
+        <v>1238.67</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.839000</v>
+        <v>-101.839</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>50153.711208</v>
+        <v>50153.711208000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>13.931586</v>
+        <v>13.931585999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.486000</v>
+        <v>-121.486</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>50164.874173</v>
+        <v>50164.874172999997</v>
       </c>
       <c r="AZ6" s="1">
         <v>13.934687</v>
       </c>
       <c r="BA6" s="1">
-        <v>1257.160000</v>
+        <v>1257.1600000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.215000</v>
+        <v>-139.215</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>50175.733585</v>
+        <v>50175.733585000002</v>
       </c>
       <c r="BE6" s="1">
         <v>13.937704</v>
       </c>
       <c r="BF6" s="1">
-        <v>1297.640000</v>
+        <v>1297.6400000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.063000</v>
+        <v>-222.06299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>50186.504172</v>
+        <v>50186.504172000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>13.940696</v>
+        <v>13.940696000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1367.830000</v>
+        <v>1367.83</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.811000</v>
+        <v>-359.81099999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>50197.341929</v>
+        <v>50197.341929000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>13.943706</v>
+        <v>13.943706000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1483.150000</v>
+        <v>1483.15</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-584.167000</v>
+        <v>-584.16700000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>50207.769683</v>
+        <v>50207.769682999999</v>
       </c>
       <c r="BT6" s="1">
         <v>13.946603</v>
       </c>
       <c r="BU6" s="1">
-        <v>1615.820000</v>
+        <v>1615.82</v>
       </c>
       <c r="BV6" s="1">
-        <v>-837.192000</v>
+        <v>-837.19200000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>50218.554163</v>
+        <v>50218.554163000001</v>
       </c>
       <c r="BY6" s="1">
         <v>13.949598</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1769.840000</v>
+        <v>1769.84</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1112.620000</v>
+        <v>-1112.6199999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>50229.883810</v>
+        <v>50229.883809999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>13.952746</v>
+        <v>13.952745999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2194.070000</v>
+        <v>2194.0700000000002</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1780.050000</v>
+        <v>-1780.05</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>50059.444057</v>
+        <v>50059.444057000001</v>
       </c>
       <c r="B7" s="1">
-        <v>13.905401</v>
+        <v>13.905400999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1148.810000</v>
+        <v>1148.81</v>
       </c>
       <c r="D7" s="1">
-        <v>-255.472000</v>
+        <v>-255.47200000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>50069.470015</v>
+        <v>50069.470014999999</v>
       </c>
       <c r="G7" s="1">
-        <v>13.908186</v>
+        <v>13.908186000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1169.640000</v>
+        <v>1169.6400000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-214.327000</v>
+        <v>-214.327</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>50079.964505</v>
+        <v>50079.964505000004</v>
       </c>
       <c r="L7" s="1">
         <v>13.911101</v>
       </c>
       <c r="M7" s="1">
-        <v>1196.810000</v>
+        <v>1196.81</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.355000</v>
+        <v>-149.35499999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>50090.164237</v>
+        <v>50090.164236999997</v>
       </c>
       <c r="Q7" s="1">
         <v>13.913935</v>
       </c>
       <c r="R7" s="1">
-        <v>1204.560000</v>
+        <v>1204.56</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.469000</v>
+        <v>-127.46899999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>50100.687855</v>
+        <v>50100.687854999996</v>
       </c>
       <c r="V7" s="1">
         <v>13.916858</v>
       </c>
       <c r="W7" s="1">
-        <v>1211.760000</v>
+        <v>1211.76</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.943000</v>
+        <v>-106.943</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>50111.051265</v>
+        <v>50111.051265000002</v>
       </c>
       <c r="AA7" s="1">
         <v>13.919736</v>
       </c>
       <c r="AB7" s="1">
-        <v>1219.070000</v>
+        <v>1219.07</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.244600</v>
+        <v>-90.244600000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>50121.598701</v>
+        <v>50121.598701000003</v>
       </c>
       <c r="AF7" s="1">
         <v>13.922666</v>
       </c>
       <c r="AG7" s="1">
-        <v>1223.680000</v>
+        <v>1223.68</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.967300</v>
+        <v>-85.967299999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>50132.351992</v>
+        <v>50132.351992000004</v>
       </c>
       <c r="AK7" s="1">
-        <v>13.925653</v>
+        <v>13.925653000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1230.740000</v>
+        <v>1230.74</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.610500</v>
+        <v>-89.610500000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>50143.116662</v>
@@ -1886,13 +2302,13 @@
         <v>13.928644</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1238.670000</v>
+        <v>1238.67</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.839000</v>
+        <v>-101.839</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>50154.166008</v>
@@ -1901,135 +2317,135 @@
         <v>13.931713</v>
       </c>
       <c r="AV7" s="1">
-        <v>1248.730000</v>
+        <v>1248.73</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.496000</v>
+        <v>-121.496</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>50165.233737</v>
+        <v>50165.233737000002</v>
       </c>
       <c r="AZ7" s="1">
         <v>13.934787</v>
       </c>
       <c r="BA7" s="1">
-        <v>1257.160000</v>
+        <v>1257.1600000000001</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.223000</v>
+        <v>-139.22300000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>50176.117978</v>
+        <v>50176.117978000002</v>
       </c>
       <c r="BE7" s="1">
         <v>13.937811</v>
       </c>
       <c r="BF7" s="1">
-        <v>1297.630000</v>
+        <v>1297.6300000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.082000</v>
+        <v>-222.08199999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>50186.879148</v>
       </c>
       <c r="BJ7" s="1">
-        <v>13.940800</v>
+        <v>13.940799999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1367.870000</v>
+        <v>1367.87</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.807000</v>
+        <v>-359.80700000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>50197.763853</v>
+        <v>50197.763852999997</v>
       </c>
       <c r="BO7" s="1">
         <v>13.943823</v>
       </c>
       <c r="BP7" s="1">
-        <v>1483.160000</v>
+        <v>1483.16</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-584.167000</v>
+        <v>-584.16700000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>50208.204640</v>
+        <v>50208.204640000004</v>
       </c>
       <c r="BT7" s="1">
         <v>13.946724</v>
       </c>
       <c r="BU7" s="1">
-        <v>1615.820000</v>
+        <v>1615.82</v>
       </c>
       <c r="BV7" s="1">
-        <v>-837.181000</v>
+        <v>-837.18100000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>50218.983710</v>
+        <v>50218.98371</v>
       </c>
       <c r="BY7" s="1">
-        <v>13.949718</v>
+        <v>13.949718000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1769.980000</v>
+        <v>1769.98</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1112.760000</v>
+        <v>-1112.76</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>50230.403119</v>
+        <v>50230.403119000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>13.952890</v>
+        <v>13.95289</v>
       </c>
       <c r="CE7" s="1">
-        <v>2191.380000</v>
+        <v>2191.38</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1779.290000</v>
+        <v>-1779.29</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>50060.127012</v>
+        <v>50060.127011999997</v>
       </c>
       <c r="B8" s="1">
-        <v>13.905591</v>
+        <v>13.905590999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1148.770000</v>
+        <v>1148.77</v>
       </c>
       <c r="D8" s="1">
-        <v>-255.308000</v>
+        <v>-255.30799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>50070.170006</v>
@@ -2038,255 +2454,255 @@
         <v>13.908381</v>
       </c>
       <c r="H8" s="1">
-        <v>1169.160000</v>
+        <v>1169.1600000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-214.466000</v>
+        <v>-214.46600000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>50080.312201</v>
+        <v>50080.312201000001</v>
       </c>
       <c r="L8" s="1">
-        <v>13.911198</v>
+        <v>13.911198000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1196.860000</v>
+        <v>1196.8599999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.003000</v>
+        <v>-149.00299999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>50090.515403</v>
+        <v>50090.515402999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>13.914032</v>
+        <v>13.914032000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1204.580000</v>
+        <v>1204.58</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.432000</v>
+        <v>-127.432</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>50101.031116</v>
+        <v>50101.031115999998</v>
       </c>
       <c r="V8" s="1">
-        <v>13.916953</v>
+        <v>13.916952999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1211.930000</v>
+        <v>1211.93</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.995000</v>
+        <v>-106.995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>50111.703504</v>
+        <v>50111.703503999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>13.919918</v>
+        <v>13.919917999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1219.110000</v>
+        <v>1219.1099999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.169600</v>
+        <v>-90.169600000000003</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>50122.258369</v>
+        <v>50122.258369000003</v>
       </c>
       <c r="AF8" s="1">
-        <v>13.922850</v>
+        <v>13.92285</v>
       </c>
       <c r="AG8" s="1">
-        <v>1223.660000</v>
+        <v>1223.6600000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.991800</v>
+        <v>-85.991799999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>50132.746307</v>
+        <v>50132.746307000001</v>
       </c>
       <c r="AK8" s="1">
         <v>13.925763</v>
       </c>
       <c r="AL8" s="1">
-        <v>1230.710000</v>
+        <v>1230.71</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.598900</v>
+        <v>-89.5989</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>50143.475734</v>
       </c>
       <c r="AP8" s="1">
-        <v>13.928743</v>
+        <v>13.928743000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1238.690000</v>
+        <v>1238.69</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.835000</v>
+        <v>-101.83499999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>50154.534070</v>
+        <v>50154.534070000002</v>
       </c>
       <c r="AU8" s="1">
         <v>13.931815</v>
       </c>
       <c r="AV8" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.501000</v>
+        <v>-121.501</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>50165.587417</v>
+        <v>50165.587417000002</v>
       </c>
       <c r="AZ8" s="1">
         <v>13.934885</v>
       </c>
       <c r="BA8" s="1">
-        <v>1257.190000</v>
+        <v>1257.19</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.241000</v>
+        <v>-139.24100000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>50176.539578</v>
+        <v>50176.539578000004</v>
       </c>
       <c r="BE8" s="1">
-        <v>13.937928</v>
+        <v>13.937927999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1297.640000</v>
+        <v>1297.6400000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.074000</v>
+        <v>-222.07400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>50187.293836</v>
+        <v>50187.293835999997</v>
       </c>
       <c r="BJ8" s="1">
         <v>13.940915</v>
       </c>
       <c r="BK8" s="1">
-        <v>1367.820000</v>
+        <v>1367.82</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.887000</v>
+        <v>-359.887</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>50198.162140</v>
+        <v>50198.16214</v>
       </c>
       <c r="BO8" s="1">
         <v>13.943934</v>
       </c>
       <c r="BP8" s="1">
-        <v>1483.090000</v>
+        <v>1483.09</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-584.151000</v>
+        <v>-584.15099999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>50208.628223</v>
       </c>
       <c r="BT8" s="1">
-        <v>13.946841</v>
+        <v>13.946840999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1615.710000</v>
+        <v>1615.71</v>
       </c>
       <c r="BV8" s="1">
-        <v>-837.207000</v>
+        <v>-837.20699999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>50219.398389</v>
+        <v>50219.398389000002</v>
       </c>
       <c r="BY8" s="1">
         <v>13.949833</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1769.830000</v>
+        <v>1769.83</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1112.680000</v>
+        <v>-1112.68</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>50230.945219</v>
+        <v>50230.945219000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>13.953040</v>
+        <v>13.95304</v>
       </c>
       <c r="CE8" s="1">
-        <v>2193.200000</v>
+        <v>2193.1999999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1781.200000</v>
+        <v>-1781.2</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>50060.468295</v>
+        <v>50060.468294999999</v>
       </c>
       <c r="B9" s="1">
-        <v>13.905686</v>
+        <v>13.905685999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1148.910000</v>
+        <v>1148.9100000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-255.391000</v>
+        <v>-255.39099999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>50070.516744</v>
@@ -2295,557 +2711,557 @@
         <v>13.908477</v>
       </c>
       <c r="H9" s="1">
-        <v>1169.580000</v>
+        <v>1169.58</v>
       </c>
       <c r="I9" s="1">
-        <v>-215.012000</v>
+        <v>-215.012</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>50080.659896</v>
+        <v>50080.659895999997</v>
       </c>
       <c r="L9" s="1">
         <v>13.911294</v>
       </c>
       <c r="M9" s="1">
-        <v>1196.960000</v>
+        <v>1196.96</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.308000</v>
+        <v>-149.30799999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>50090.861642</v>
+        <v>50090.861642000003</v>
       </c>
       <c r="Q9" s="1">
         <v>13.914128</v>
       </c>
       <c r="R9" s="1">
-        <v>1204.630000</v>
+        <v>1204.6300000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.485000</v>
+        <v>-127.485</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>50101.683331</v>
       </c>
       <c r="V9" s="1">
-        <v>13.917134</v>
+        <v>13.917134000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1211.600000</v>
+        <v>1211.5999999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.818000</v>
+        <v>-106.818</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>50112.100302</v>
+        <v>50112.100301999999</v>
       </c>
       <c r="AA9" s="1">
         <v>13.920028</v>
       </c>
       <c r="AB9" s="1">
-        <v>1219.230000</v>
+        <v>1219.23</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.267500</v>
+        <v>-90.267499999999998</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>50122.630865</v>
+        <v>50122.630864999999</v>
       </c>
       <c r="AF9" s="1">
         <v>13.922953</v>
       </c>
       <c r="AG9" s="1">
-        <v>1223.780000</v>
+        <v>1223.78</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.926900</v>
+        <v>-85.926900000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>50133.092016</v>
+        <v>50133.092016000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>13.925859</v>
+        <v>13.925859000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1230.730000</v>
+        <v>1230.73</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.581400</v>
+        <v>-89.581400000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>50143.835365</v>
+        <v>50143.835364999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>13.928843</v>
+        <v>13.928843000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.866000</v>
+        <v>-101.866</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>50154.897606</v>
+        <v>50154.897605999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>13.931916</v>
+        <v>13.931915999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1248.660000</v>
+        <v>1248.6600000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.486000</v>
+        <v>-121.486</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>50166.002073</v>
+        <v>50166.002073000003</v>
       </c>
       <c r="AZ9" s="1">
         <v>13.935001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1257.190000</v>
+        <v>1257.19</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.213000</v>
+        <v>-139.21299999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>50176.843828</v>
+        <v>50176.843827999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>13.938012</v>
+        <v>13.938012000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1297.620000</v>
+        <v>1297.6199999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.055000</v>
+        <v>-222.05500000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>50187.640042</v>
+        <v>50187.640041999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>13.941011</v>
       </c>
       <c r="BK9" s="1">
-        <v>1367.850000</v>
+        <v>1367.85</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.821000</v>
+        <v>-359.82100000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>50198.581788</v>
+        <v>50198.581788000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>13.944050</v>
+        <v>13.944050000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1483.140000</v>
+        <v>1483.14</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-584.115000</v>
+        <v>-584.11500000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>50209.039904</v>
+        <v>50209.039903999997</v>
       </c>
       <c r="BT9" s="1">
         <v>13.946956</v>
       </c>
       <c r="BU9" s="1">
-        <v>1615.810000</v>
+        <v>1615.81</v>
       </c>
       <c r="BV9" s="1">
-        <v>-837.305000</v>
+        <v>-837.30499999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>50219.851732</v>
+        <v>50219.851732000003</v>
       </c>
       <c r="BY9" s="1">
         <v>13.949959</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1769.980000</v>
+        <v>1769.98</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1112.750000</v>
+        <v>-1112.75</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>50231.482882</v>
+        <v>50231.482881999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>13.953190</v>
+        <v>13.953189999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2192.320000</v>
+        <v>2192.3200000000002</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1778.450000</v>
+        <v>-1778.45</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>50060.809043</v>
+        <v>50060.809043000001</v>
       </c>
       <c r="B10" s="1">
-        <v>13.905780</v>
+        <v>13.90578</v>
       </c>
       <c r="C10" s="1">
-        <v>1148.770000</v>
+        <v>1148.77</v>
       </c>
       <c r="D10" s="1">
-        <v>-255.155000</v>
+        <v>-255.155</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>50070.862421</v>
+        <v>50070.862420999998</v>
       </c>
       <c r="G10" s="1">
-        <v>13.908573</v>
+        <v>13.908573000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1169.320000</v>
+        <v>1169.32</v>
       </c>
       <c r="I10" s="1">
-        <v>-214.269000</v>
+        <v>-214.26900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>50081.317127</v>
+        <v>50081.317127000002</v>
       </c>
       <c r="L10" s="1">
         <v>13.911477</v>
       </c>
       <c r="M10" s="1">
-        <v>1196.890000</v>
+        <v>1196.8900000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.444000</v>
+        <v>-149.44399999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>50091.548569</v>
+        <v>50091.548568999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>13.914319</v>
+        <v>13.914319000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1204.600000</v>
+        <v>1204.5999999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.563000</v>
+        <v>-127.563</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>50102.057815</v>
       </c>
       <c r="V10" s="1">
-        <v>13.917238</v>
+        <v>13.917237999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1211.800000</v>
+        <v>1211.8</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.838000</v>
+        <v>-106.83799999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>50112.445023</v>
       </c>
       <c r="AA10" s="1">
-        <v>13.920124</v>
+        <v>13.920123999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1219.090000</v>
+        <v>1219.0899999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.107800</v>
+        <v>-90.107799999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>50122.976080</v>
+        <v>50122.97608</v>
       </c>
       <c r="AF10" s="1">
-        <v>13.923049</v>
+        <v>13.923049000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1223.720000</v>
+        <v>1223.72</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.895100</v>
+        <v>-85.895099999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>50133.443186</v>
+        <v>50133.443185999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>13.925956</v>
+        <v>13.925955999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1230.720000</v>
+        <v>1230.72</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.600100</v>
+        <v>-89.600099999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>50144.257429</v>
+        <v>50144.257428999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>13.928960</v>
+        <v>13.92896</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1238.670000</v>
+        <v>1238.67</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.831000</v>
+        <v>-101.831</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>50155.321189</v>
+        <v>50155.321189000002</v>
       </c>
       <c r="AU10" s="1">
         <v>13.932034</v>
       </c>
       <c r="AV10" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.489000</v>
+        <v>-121.489</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>50166.309064</v>
+        <v>50166.309064000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>13.935086</v>
       </c>
       <c r="BA10" s="1">
-        <v>1257.190000</v>
+        <v>1257.19</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.204000</v>
+        <v>-139.20400000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>50177.203690</v>
+        <v>50177.203690000002</v>
       </c>
       <c r="BE10" s="1">
         <v>13.938112</v>
       </c>
       <c r="BF10" s="1">
-        <v>1297.610000</v>
+        <v>1297.6099999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.084000</v>
+        <v>-222.084</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>50188.027422</v>
+        <v>50188.027421999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>13.941119</v>
       </c>
       <c r="BK10" s="1">
-        <v>1367.880000</v>
+        <v>1367.88</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.807000</v>
+        <v>-359.80700000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>50198.981036</v>
+        <v>50198.981035999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>13.944161</v>
+        <v>13.944160999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1483.100000</v>
+        <v>1483.1</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-584.121000</v>
+        <v>-584.12099999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>50209.601409</v>
+        <v>50209.601409000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>13.947112</v>
+        <v>13.947112000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1615.740000</v>
+        <v>1615.74</v>
       </c>
       <c r="BV10" s="1">
-        <v>-837.311000</v>
+        <v>-837.31100000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>50220.300112</v>
+        <v>50220.300111999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>13.950083</v>
+        <v>13.950082999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1769.940000</v>
+        <v>1769.94</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1112.810000</v>
+        <v>-1112.81</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>50232.023052</v>
+        <v>50232.023051999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>13.953340</v>
+        <v>13.953340000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2191.650000</v>
+        <v>2191.65</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1780.990000</v>
+        <v>-1780.99</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>50061.452321</v>
+        <v>50061.452320999997</v>
       </c>
       <c r="B11" s="1">
-        <v>13.905959</v>
+        <v>13.905958999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1148.850000</v>
+        <v>1148.8499999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-255.390000</v>
+        <v>-255.39</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>50071.506755</v>
+        <v>50071.506755000002</v>
       </c>
       <c r="G11" s="1">
         <v>13.908752</v>
       </c>
       <c r="H11" s="1">
-        <v>1170.100000</v>
+        <v>1170.0999999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-213.826000</v>
+        <v>-213.82599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>50081.693559</v>
+        <v>50081.693558999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.911582</v>
+        <v>13.911581999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1196.970000</v>
+        <v>1196.97</v>
       </c>
       <c r="N11" s="1">
-        <v>-149.246000</v>
+        <v>-149.24600000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>50091.909193</v>
       </c>
       <c r="Q11" s="1">
-        <v>13.914419</v>
+        <v>13.914419000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1204.520000</v>
+        <v>1204.52</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.497000</v>
+        <v>-127.497</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>50102.405003</v>
@@ -2854,133 +3270,133 @@
         <v>13.917335</v>
       </c>
       <c r="W11" s="1">
-        <v>1211.610000</v>
+        <v>1211.6099999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.881000</v>
+        <v>-106.881</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>50112.796685</v>
+        <v>50112.796685000001</v>
       </c>
       <c r="AA11" s="1">
         <v>13.920221</v>
       </c>
       <c r="AB11" s="1">
-        <v>1219.150000</v>
+        <v>1219.1500000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.252300</v>
+        <v>-90.252300000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>50123.318848</v>
+        <v>50123.318848000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>13.923144</v>
+        <v>13.923144000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1223.700000</v>
+        <v>1223.7</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.951600</v>
+        <v>-85.951599999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>50133.864269</v>
+        <v>50133.864268999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>13.926073</v>
+        <v>13.926073000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1230.730000</v>
+        <v>1230.73</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.610900</v>
+        <v>-89.610900000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>50144.555059</v>
+        <v>50144.555058999998</v>
       </c>
       <c r="AP11" s="1">
         <v>13.929043</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1238.690000</v>
+        <v>1238.69</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.859000</v>
+        <v>-101.85899999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>50155.627717</v>
+        <v>50155.627717000003</v>
       </c>
       <c r="AU11" s="1">
         <v>13.932119</v>
       </c>
       <c r="AV11" s="1">
-        <v>1248.720000</v>
+        <v>1248.72</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.474000</v>
+        <v>-121.474</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>50166.669656</v>
+        <v>50166.669655999998</v>
       </c>
       <c r="AZ11" s="1">
         <v>13.935186</v>
       </c>
       <c r="BA11" s="1">
-        <v>1257.190000</v>
+        <v>1257.19</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.235000</v>
+        <v>-139.23500000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>50177.567257</v>
+        <v>50177.567257000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>13.938213</v>
+        <v>13.938212999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1297.620000</v>
+        <v>1297.6199999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.072000</v>
+        <v>-222.072</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>50188.403354</v>
+        <v>50188.403354000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>13.941223</v>
+        <v>13.941223000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.818000</v>
+        <v>-359.81799999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>50199.398705</v>
@@ -2989,240 +3405,240 @@
         <v>13.944277</v>
       </c>
       <c r="BP11" s="1">
-        <v>1483.120000</v>
+        <v>1483.12</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-584.110000</v>
+        <v>-584.11</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>50209.897981</v>
+        <v>50209.897981000002</v>
       </c>
       <c r="BT11" s="1">
         <v>13.947194</v>
       </c>
       <c r="BU11" s="1">
-        <v>1615.770000</v>
+        <v>1615.77</v>
       </c>
       <c r="BV11" s="1">
-        <v>-837.389000</v>
+        <v>-837.38900000000001</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>50220.757391</v>
+        <v>50220.757390999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>13.950210</v>
+        <v>13.95021</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1769.890000</v>
+        <v>1769.89</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1112.650000</v>
+        <v>-1112.6500000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>50232.562672</v>
       </c>
       <c r="CD11" s="1">
-        <v>13.953490</v>
+        <v>13.95349</v>
       </c>
       <c r="CE11" s="1">
-        <v>2193.660000</v>
+        <v>2193.66</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1779.240000</v>
+        <v>-1779.24</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>50061.834240</v>
+        <v>50061.834239999996</v>
       </c>
       <c r="B12" s="1">
         <v>13.906065</v>
       </c>
       <c r="C12" s="1">
-        <v>1148.820000</v>
+        <v>1148.82</v>
       </c>
       <c r="D12" s="1">
-        <v>-255.293000</v>
+        <v>-255.29300000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>50071.895092</v>
+        <v>50071.895091999999</v>
       </c>
       <c r="G12" s="1">
-        <v>13.908860</v>
+        <v>13.908860000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1169.540000</v>
+        <v>1169.54</v>
       </c>
       <c r="I12" s="1">
-        <v>-214.893000</v>
+        <v>-214.893</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>50082.040294</v>
+        <v>50082.040293999999</v>
       </c>
       <c r="L12" s="1">
         <v>13.911678</v>
       </c>
       <c r="M12" s="1">
-        <v>1196.800000</v>
+        <v>1196.8</v>
       </c>
       <c r="N12" s="1">
-        <v>-149.091000</v>
+        <v>-149.09100000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>50092.254874</v>
+        <v>50092.254873999998</v>
       </c>
       <c r="Q12" s="1">
         <v>13.914515</v>
       </c>
       <c r="R12" s="1">
-        <v>1204.570000</v>
+        <v>1204.57</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.465000</v>
+        <v>-127.465</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>50102.746252</v>
+        <v>50102.746251999997</v>
       </c>
       <c r="V12" s="1">
-        <v>13.917430</v>
+        <v>13.91743</v>
       </c>
       <c r="W12" s="1">
-        <v>1211.740000</v>
+        <v>1211.74</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.992000</v>
+        <v>-106.992</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>50113.206918</v>
+        <v>50113.206918000003</v>
       </c>
       <c r="AA12" s="1">
         <v>13.920335</v>
       </c>
       <c r="AB12" s="1">
-        <v>1219.050000</v>
+        <v>1219.05</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.182500</v>
+        <v>-90.182500000000005</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>50123.734463</v>
+        <v>50123.734463000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>13.923260</v>
+        <v>13.923260000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1223.670000</v>
+        <v>1223.67</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.937900</v>
+        <v>-85.937899999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>50134.155940</v>
+        <v>50134.155939999997</v>
       </c>
       <c r="AK12" s="1">
         <v>13.926154</v>
       </c>
       <c r="AL12" s="1">
-        <v>1230.750000</v>
+        <v>1230.75</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.613000</v>
+        <v>-89.613</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>50144.919091</v>
+        <v>50144.919091000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>13.929144</v>
+        <v>13.929144000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1238.690000</v>
+        <v>1238.69</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.846000</v>
+        <v>-101.846</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>50155.990294</v>
+        <v>50155.990294000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>13.932220</v>
+        <v>13.932219999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.500000</v>
+        <v>-121.5</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>50167.024332</v>
+        <v>50167.024332000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>13.935285</v>
       </c>
       <c r="BA12" s="1">
-        <v>1257.200000</v>
+        <v>1257.2</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.218000</v>
+        <v>-139.21799999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>50178.286488</v>
+        <v>50178.286487999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>13.938413</v>
+        <v>13.938413000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1297.650000</v>
+        <v>1297.6500000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.068000</v>
+        <v>-222.06800000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>50189.153306</v>
@@ -3231,135 +3647,135 @@
         <v>13.941431</v>
       </c>
       <c r="BK12" s="1">
-        <v>1367.860000</v>
+        <v>1367.86</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.808000</v>
+        <v>-359.80799999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>50199.795996</v>
+        <v>50199.795996000001</v>
       </c>
       <c r="BO12" s="1">
         <v>13.944388</v>
       </c>
       <c r="BP12" s="1">
-        <v>1483.150000</v>
+        <v>1483.15</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-584.154000</v>
+        <v>-584.154</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>50210.313630</v>
+        <v>50210.313629999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>13.947309</v>
+        <v>13.947309000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1615.740000</v>
+        <v>1615.74</v>
       </c>
       <c r="BV12" s="1">
-        <v>-837.502000</v>
+        <v>-837.50199999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>50221.207263</v>
+        <v>50221.207262999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>13.950335</v>
+        <v>13.950335000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1769.940000</v>
+        <v>1769.94</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1112.750000</v>
+        <v>-1112.75</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>50233.414334</v>
+        <v>50233.414334000001</v>
       </c>
       <c r="CD12" s="1">
         <v>13.953726</v>
       </c>
       <c r="CE12" s="1">
-        <v>2193.350000</v>
+        <v>2193.35</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1781.240000</v>
+        <v>-1781.24</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>50062.176480</v>
+        <v>50062.176480000002</v>
       </c>
       <c r="B13" s="1">
-        <v>13.906160</v>
+        <v>13.90616</v>
       </c>
       <c r="C13" s="1">
-        <v>1148.990000</v>
+        <v>1148.99</v>
       </c>
       <c r="D13" s="1">
-        <v>-255.243000</v>
+        <v>-255.24299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>50072.240803</v>
+        <v>50072.240803000001</v>
       </c>
       <c r="G13" s="1">
         <v>13.908956</v>
       </c>
       <c r="H13" s="1">
-        <v>1170.860000</v>
+        <v>1170.8599999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-214.814000</v>
+        <v>-214.81399999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>50082.386471</v>
+        <v>50082.386470999998</v>
       </c>
       <c r="L13" s="1">
-        <v>13.911774</v>
+        <v>13.911773999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1196.910000</v>
+        <v>1196.9100000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.373000</v>
+        <v>-149.37299999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>50092.672042</v>
+        <v>50092.672041999998</v>
       </c>
       <c r="Q13" s="1">
         <v>13.914631</v>
       </c>
       <c r="R13" s="1">
-        <v>1204.620000</v>
+        <v>1204.6199999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.476000</v>
+        <v>-127.476</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>50103.162891</v>
@@ -3368,28 +3784,28 @@
         <v>13.917545</v>
       </c>
       <c r="W13" s="1">
-        <v>1211.770000</v>
+        <v>1211.77</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.888000</v>
+        <v>-106.88800000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>50113.502529</v>
+        <v>50113.502528999998</v>
       </c>
       <c r="AA13" s="1">
         <v>13.920417</v>
       </c>
       <c r="AB13" s="1">
-        <v>1219.120000</v>
+        <v>1219.1199999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.136600</v>
+        <v>-90.136600000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>50124.007759</v>
@@ -3398,330 +3814,330 @@
         <v>13.923335</v>
       </c>
       <c r="AG13" s="1">
-        <v>1223.690000</v>
+        <v>1223.69</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.915000</v>
+        <v>-85.915000000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>50134.504593</v>
+        <v>50134.504592999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>13.926251</v>
+        <v>13.926251000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1230.740000</v>
+        <v>1230.74</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.589200</v>
+        <v>-89.589200000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>50145.278692</v>
       </c>
       <c r="AP13" s="1">
-        <v>13.929244</v>
+        <v>13.929244000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1238.670000</v>
+        <v>1238.67</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.820000</v>
+        <v>-101.82</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>50156.355844</v>
+        <v>50156.355843999998</v>
       </c>
       <c r="AU13" s="1">
         <v>13.932321</v>
       </c>
       <c r="AV13" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.476000</v>
+        <v>-121.476</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>50167.741045</v>
+        <v>50167.741045000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>13.935484</v>
+        <v>13.935484000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1257.180000</v>
+        <v>1257.18</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.211000</v>
+        <v>-139.21100000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>50178.676311</v>
+        <v>50178.676311000003</v>
       </c>
       <c r="BE13" s="1">
         <v>13.938521</v>
       </c>
       <c r="BF13" s="1">
-        <v>1297.610000</v>
+        <v>1297.6099999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.070000</v>
+        <v>-222.07</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>50189.531752</v>
+        <v>50189.531752000003</v>
       </c>
       <c r="BJ13" s="1">
         <v>13.941537</v>
       </c>
       <c r="BK13" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.819000</v>
+        <v>-359.81900000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>50200.219082</v>
+        <v>50200.219082000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>13.944505</v>
+        <v>13.944504999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1483.110000</v>
+        <v>1483.11</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-584.155000</v>
+        <v>-584.15499999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>50211.052173</v>
+        <v>50211.052172999996</v>
       </c>
       <c r="BT13" s="1">
         <v>13.947514</v>
       </c>
       <c r="BU13" s="1">
-        <v>1615.690000</v>
+        <v>1615.69</v>
       </c>
       <c r="BV13" s="1">
-        <v>-837.518000</v>
+        <v>-837.51800000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>50221.968125</v>
+        <v>50221.968124999999</v>
       </c>
       <c r="BY13" s="1">
         <v>13.950547</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1769.990000</v>
+        <v>1769.99</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1112.770000</v>
+        <v>-1112.77</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>50233.641966</v>
+        <v>50233.641966000003</v>
       </c>
       <c r="CD13" s="1">
         <v>13.953789</v>
       </c>
       <c r="CE13" s="1">
-        <v>2192.890000</v>
+        <v>2192.89</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1781.280000</v>
+        <v>-1781.28</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>50062.517759</v>
+        <v>50062.517759000002</v>
       </c>
       <c r="B14" s="1">
         <v>13.906255</v>
       </c>
       <c r="C14" s="1">
-        <v>1148.850000</v>
+        <v>1148.8499999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-255.263000</v>
+        <v>-255.26300000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>50072.583540</v>
+        <v>50072.58354</v>
       </c>
       <c r="G14" s="1">
         <v>13.909051</v>
       </c>
       <c r="H14" s="1">
-        <v>1169.850000</v>
+        <v>1169.8499999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-214.809000</v>
+        <v>-214.809</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>50082.809061</v>
       </c>
       <c r="L14" s="1">
-        <v>13.911891</v>
+        <v>13.911891000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1196.920000</v>
+        <v>1196.92</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.164000</v>
+        <v>-149.16399999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>50092.954272</v>
+        <v>50092.954272000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>13.914710</v>
+        <v>13.914709999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1204.650000</v>
+        <v>1204.6500000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.442000</v>
+        <v>-127.44199999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>50103.460526</v>
+        <v>50103.460526000003</v>
       </c>
       <c r="V14" s="1">
-        <v>13.917628</v>
+        <v>13.917628000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1211.780000</v>
+        <v>1211.78</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.916000</v>
+        <v>-106.916</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>50113.851214</v>
+        <v>50113.851214000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>13.920514</v>
+        <v>13.920514000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1219.130000</v>
+        <v>1219.1300000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.131500</v>
+        <v>-90.131500000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>50124.349502</v>
+        <v>50124.349501999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>13.923430</v>
+        <v>13.92343</v>
       </c>
       <c r="AG14" s="1">
-        <v>1223.710000</v>
+        <v>1223.71</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.934200</v>
+        <v>-85.934200000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>50134.852288</v>
+        <v>50134.852288000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>13.926348</v>
+        <v>13.926348000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1230.740000</v>
+        <v>1230.74</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.602200</v>
+        <v>-89.602199999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>50146.000865</v>
+        <v>50146.000865000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>13.929445</v>
+        <v>13.929444999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1238.670000</v>
+        <v>1238.67</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.819000</v>
+        <v>-101.819</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>50157.085461</v>
+        <v>50157.085461000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>13.932524</v>
+        <v>13.932524000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1248.670000</v>
+        <v>1248.67</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.492000</v>
+        <v>-121.492</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>50168.101110</v>
+        <v>50168.101110000003</v>
       </c>
       <c r="AZ14" s="1">
         <v>13.935584</v>
       </c>
       <c r="BA14" s="1">
-        <v>1257.200000</v>
+        <v>1257.2</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.222000</v>
+        <v>-139.22200000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>50179.056246</v>
@@ -3730,105 +4146,105 @@
         <v>13.938627</v>
       </c>
       <c r="BF14" s="1">
-        <v>1297.630000</v>
+        <v>1297.6300000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.080000</v>
+        <v>-222.08</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>50189.906760</v>
+        <v>50189.906759999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>13.941641</v>
+        <v>13.941641000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1367.860000</v>
+        <v>1367.86</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.833000</v>
+        <v>-359.83300000000003</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>50200.926842</v>
+        <v>50200.926842000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>13.944702</v>
+        <v>13.944701999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1483.140000</v>
+        <v>1483.14</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-584.073000</v>
+        <v>-584.07299999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>50211.168733</v>
+        <v>50211.168732999999</v>
       </c>
       <c r="BT14" s="1">
         <v>13.947547</v>
       </c>
       <c r="BU14" s="1">
-        <v>1615.740000</v>
+        <v>1615.74</v>
       </c>
       <c r="BV14" s="1">
-        <v>-837.550000</v>
+        <v>-837.55</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>50222.111005</v>
+        <v>50222.111004999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>13.950586</v>
+        <v>13.950585999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1770.010000</v>
+        <v>1770.01</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1112.750000</v>
+        <v>-1112.75</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>50234.160285</v>
+        <v>50234.160284999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>13.953933</v>
+        <v>13.953932999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2194.260000</v>
+        <v>2194.2600000000002</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1779.600000</v>
+        <v>-1779.6</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>50062.940360</v>
+        <v>50062.940360000001</v>
       </c>
       <c r="B15" s="1">
-        <v>13.906372</v>
+        <v>13.906371999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1148.820000</v>
+        <v>1148.82</v>
       </c>
       <c r="D15" s="1">
-        <v>-255.181000</v>
+        <v>-255.18100000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>50073.001698</v>
@@ -3837,133 +4253,133 @@
         <v>13.909167</v>
       </c>
       <c r="H15" s="1">
-        <v>1169.370000</v>
+        <v>1169.3699999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-214.039000</v>
+        <v>-214.03899999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>50083.078422</v>
+        <v>50083.078421999999</v>
       </c>
       <c r="L15" s="1">
         <v>13.911966</v>
       </c>
       <c r="M15" s="1">
-        <v>1196.960000</v>
+        <v>1196.96</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.173000</v>
+        <v>-149.173</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>50093.301928</v>
+        <v>50093.301928000001</v>
       </c>
       <c r="Q15" s="1">
         <v>13.914806</v>
       </c>
       <c r="R15" s="1">
-        <v>1204.630000</v>
+        <v>1204.6300000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.546000</v>
+        <v>-127.54600000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>50103.803754</v>
       </c>
       <c r="V15" s="1">
-        <v>13.917723</v>
+        <v>13.917723000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1211.720000</v>
+        <v>1211.72</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.940000</v>
+        <v>-106.94</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>50114.202347</v>
+        <v>50114.202346999999</v>
       </c>
       <c r="AA15" s="1">
         <v>13.920612</v>
       </c>
       <c r="AB15" s="1">
-        <v>1219.070000</v>
+        <v>1219.07</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.173600</v>
+        <v>-90.173599999999993</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>50124.694717</v>
+        <v>50124.694716999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>13.923526</v>
+        <v>13.923526000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1223.730000</v>
+        <v>1223.73</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.935800</v>
+        <v>-85.9358</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>50135.549200</v>
+        <v>50135.549200000001</v>
       </c>
       <c r="AK15" s="1">
         <v>13.926541</v>
       </c>
       <c r="AL15" s="1">
-        <v>1230.740000</v>
+        <v>1230.74</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.612200</v>
+        <v>-89.612200000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>50146.388241</v>
+        <v>50146.388241000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>13.929552</v>
+        <v>13.929551999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.831000</v>
+        <v>-101.831</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>50157.472835</v>
       </c>
       <c r="AU15" s="1">
-        <v>13.932631</v>
+        <v>13.932631000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.492000</v>
+        <v>-121.492</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>50168.461205</v>
@@ -3972,255 +4388,255 @@
         <v>13.935684</v>
       </c>
       <c r="BA15" s="1">
-        <v>1257.190000</v>
+        <v>1257.19</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.234000</v>
+        <v>-139.23400000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>50179.711989</v>
+        <v>50179.711989000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>13.938809</v>
+        <v>13.938808999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1297.650000</v>
+        <v>1297.6500000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.102000</v>
+        <v>-222.102</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>50190.609301</v>
+        <v>50190.609300999997</v>
       </c>
       <c r="BJ15" s="1">
         <v>13.941836</v>
       </c>
       <c r="BK15" s="1">
-        <v>1367.880000</v>
+        <v>1367.88</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.850000</v>
+        <v>-359.85</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>50201.037450</v>
+        <v>50201.037450000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>13.944733</v>
+        <v>13.944732999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1483.170000</v>
+        <v>1483.17</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-584.093000</v>
+        <v>-584.09299999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>50211.610172</v>
+        <v>50211.610172000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>13.947669</v>
+        <v>13.947668999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1615.780000</v>
+        <v>1615.78</v>
       </c>
       <c r="BV15" s="1">
-        <v>-837.529000</v>
+        <v>-837.529</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>50222.530590</v>
+        <v>50222.530590000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>13.950703</v>
+        <v>13.950703000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1769.850000</v>
+        <v>1769.85</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1112.840000</v>
+        <v>-1112.8399999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>50234.679596</v>
+        <v>50234.679596000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>13.954078</v>
+        <v>13.954078000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2193.470000</v>
+        <v>2193.4699999999998</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1780.700000</v>
+        <v>-1780.7</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>50063.214147</v>
+        <v>50063.214146999999</v>
       </c>
       <c r="B16" s="1">
-        <v>13.906448</v>
+        <v>13.906447999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1149.090000</v>
+        <v>1149.0899999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-255.228000</v>
+        <v>-255.22800000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>50073.295300</v>
+        <v>50073.295299999998</v>
       </c>
       <c r="G16" s="1">
-        <v>13.909249</v>
+        <v>13.909249000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1169.700000</v>
+        <v>1169.7</v>
       </c>
       <c r="I16" s="1">
-        <v>-214.188000</v>
+        <v>-214.18799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>50083.424133</v>
       </c>
       <c r="L16" s="1">
-        <v>13.912062</v>
+        <v>13.912062000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1196.890000</v>
+        <v>1196.8900000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.486000</v>
+        <v>-149.48599999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>50093.650133</v>
+        <v>50093.650133000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>13.914903</v>
+        <v>13.914903000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1204.570000</v>
+        <v>1204.57</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.565000</v>
+        <v>-127.565</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>50104.147449</v>
+        <v>50104.147448999996</v>
       </c>
       <c r="V16" s="1">
         <v>13.917819</v>
       </c>
       <c r="W16" s="1">
-        <v>1211.840000</v>
+        <v>1211.8399999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.933000</v>
+        <v>-106.93300000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>50114.898732</v>
+        <v>50114.898732000001</v>
       </c>
       <c r="AA16" s="1">
         <v>13.920805</v>
       </c>
       <c r="AB16" s="1">
-        <v>1219.130000</v>
+        <v>1219.1300000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.154500</v>
+        <v>-90.154499999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>50125.380700</v>
+        <v>50125.380700000002</v>
       </c>
       <c r="AF16" s="1">
         <v>13.923717</v>
       </c>
       <c r="AG16" s="1">
-        <v>1223.710000</v>
+        <v>1223.71</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.900200</v>
+        <v>-85.900199999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>50135.897449</v>
+        <v>50135.897448999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>13.926638</v>
+        <v>13.926638000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1230.740000</v>
+        <v>1230.74</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.593300</v>
+        <v>-89.593299999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>50146.748373</v>
+        <v>50146.748373000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>13.929652</v>
+        <v>13.929652000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1238.650000</v>
+        <v>1238.6500000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.839000</v>
+        <v>-101.839</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>50157.835944</v>
+        <v>50157.835943999999</v>
       </c>
       <c r="AU16" s="1">
         <v>13.932732</v>
       </c>
       <c r="AV16" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.496000</v>
+        <v>-121.496</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>50169.129813</v>
@@ -4229,135 +4645,135 @@
         <v>13.935869</v>
       </c>
       <c r="BA16" s="1">
-        <v>1257.180000</v>
+        <v>1257.18</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.209000</v>
+        <v>-139.209</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>50180.140037</v>
+        <v>50180.140036999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>13.938928</v>
+        <v>13.938928000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1297.630000</v>
+        <v>1297.6300000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.065000</v>
+        <v>-222.065</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>50191.033142</v>
       </c>
       <c r="BJ16" s="1">
-        <v>13.941954</v>
+        <v>13.941954000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.741000</v>
+        <v>-359.74099999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>50201.460042</v>
+        <v>50201.460041999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>13.944850</v>
+        <v>13.944850000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1483.100000</v>
+        <v>1483.1</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-584.133000</v>
+        <v>-584.13300000000004</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>50212.020860</v>
+        <v>50212.020859999997</v>
       </c>
       <c r="BT16" s="1">
         <v>13.947784</v>
       </c>
       <c r="BU16" s="1">
-        <v>1615.770000</v>
+        <v>1615.77</v>
       </c>
       <c r="BV16" s="1">
-        <v>-837.624000</v>
+        <v>-837.62400000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>50222.952716</v>
       </c>
       <c r="BY16" s="1">
-        <v>13.950820</v>
+        <v>13.95082</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1770.000000</v>
+        <v>1770</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1112.930000</v>
+        <v>-1112.93</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>50235.232662</v>
+        <v>50235.232662000002</v>
       </c>
       <c r="CD16" s="1">
         <v>13.954231</v>
       </c>
       <c r="CE16" s="1">
-        <v>2192.610000</v>
+        <v>2192.61</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1781.430000</v>
+        <v>-1781.43</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>50063.558369</v>
+        <v>50063.558368999998</v>
       </c>
       <c r="B17" s="1">
         <v>13.906544</v>
       </c>
       <c r="C17" s="1">
-        <v>1148.850000</v>
+        <v>1148.8499999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-255.133000</v>
+        <v>-255.13300000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>50073.643489</v>
+        <v>50073.643489000002</v>
       </c>
       <c r="G17" s="1">
         <v>13.909345</v>
       </c>
       <c r="H17" s="1">
-        <v>1169.720000</v>
+        <v>1169.72</v>
       </c>
       <c r="I17" s="1">
-        <v>-214.452000</v>
+        <v>-214.452</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>50083.770309</v>
@@ -4366,345 +4782,345 @@
         <v>13.912158</v>
       </c>
       <c r="M17" s="1">
-        <v>1196.670000</v>
+        <v>1196.67</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.225000</v>
+        <v>-149.22499999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>50094.347991</v>
+        <v>50094.347991000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>13.915097</v>
+        <v>13.915096999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1204.550000</v>
+        <v>1204.55</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.480000</v>
+        <v>-127.48</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>50104.833589</v>
+        <v>50104.833589000002</v>
       </c>
       <c r="V17" s="1">
         <v>13.918009</v>
       </c>
       <c r="W17" s="1">
-        <v>1211.690000</v>
+        <v>1211.69</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.999000</v>
+        <v>-106.999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>50115.243452</v>
+        <v>50115.243452000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>13.920901</v>
+        <v>13.920901000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.249600</v>
+        <v>-90.249600000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>50125.725441</v>
+        <v>50125.725441000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>13.923813</v>
+        <v>13.923813000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1223.640000</v>
+        <v>1223.6400000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.921000</v>
+        <v>-85.921000000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>50136.247416</v>
+        <v>50136.247415999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>13.926735</v>
+        <v>13.926735000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1230.740000</v>
+        <v>1230.74</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.609100</v>
+        <v>-89.609099999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>50147.420949</v>
+        <v>50147.420948999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>13.929839</v>
+        <v>13.929838999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1238.650000</v>
+        <v>1238.6500000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.831000</v>
+        <v>-101.831</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>50158.512946</v>
+        <v>50158.512946000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>13.932920</v>
+        <v>13.932919999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1248.710000</v>
+        <v>1248.71</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.469000</v>
+        <v>-121.46899999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>50169.570290</v>
+        <v>50169.570290000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>13.935992</v>
+        <v>13.935992000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1257.200000</v>
+        <v>1257.2</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.201000</v>
+        <v>-139.20099999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>50180.530852</v>
+        <v>50180.530852000004</v>
       </c>
       <c r="BE17" s="1">
         <v>13.939036</v>
       </c>
       <c r="BF17" s="1">
-        <v>1297.630000</v>
+        <v>1297.6300000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.040000</v>
+        <v>-222.04</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>50191.410102</v>
+        <v>50191.410102000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>13.942058</v>
+        <v>13.942057999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.848000</v>
+        <v>-359.84800000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>50201.855849</v>
       </c>
       <c r="BO17" s="1">
-        <v>13.944960</v>
+        <v>13.94496</v>
       </c>
       <c r="BP17" s="1">
-        <v>1483.090000</v>
+        <v>1483.09</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-584.138000</v>
+        <v>-584.13800000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>50212.453370</v>
+        <v>50212.453370000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>13.947904</v>
+        <v>13.947903999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1615.780000</v>
+        <v>1615.78</v>
       </c>
       <c r="BV17" s="1">
-        <v>-837.678000</v>
+        <v>-837.678</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>50223.387214</v>
+        <v>50223.387214000002</v>
       </c>
       <c r="BY17" s="1">
         <v>13.950941</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1770.090000</v>
+        <v>1770.09</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1112.680000</v>
+        <v>-1112.68</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>50235.761867</v>
+        <v>50235.761867000001</v>
       </c>
       <c r="CD17" s="1">
         <v>13.954378</v>
       </c>
       <c r="CE17" s="1">
-        <v>2193.980000</v>
+        <v>2193.98</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1779.620000</v>
+        <v>-1779.62</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>50063.898094</v>
+        <v>50063.898093999996</v>
       </c>
       <c r="B18" s="1">
-        <v>13.906638</v>
+        <v>13.906637999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1148.770000</v>
+        <v>1148.77</v>
       </c>
       <c r="D18" s="1">
-        <v>-255.272000</v>
+        <v>-255.27199999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>50073.984771</v>
+        <v>50073.984771000003</v>
       </c>
       <c r="G18" s="1">
-        <v>13.909440</v>
+        <v>13.90944</v>
       </c>
       <c r="H18" s="1">
-        <v>1170.120000</v>
+        <v>1170.1199999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-214.528000</v>
+        <v>-214.52799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>50084.460740</v>
+        <v>50084.460740000002</v>
       </c>
       <c r="L18" s="1">
-        <v>13.912350</v>
+        <v>13.91235</v>
       </c>
       <c r="M18" s="1">
-        <v>1196.750000</v>
+        <v>1196.75</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.404000</v>
+        <v>-149.404</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>50094.695224</v>
+        <v>50094.695224000003</v>
       </c>
       <c r="Q18" s="1">
         <v>13.915193</v>
       </c>
       <c r="R18" s="1">
-        <v>1204.550000</v>
+        <v>1204.55</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.454000</v>
+        <v>-127.45399999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>50105.175655</v>
+        <v>50105.175654999999</v>
       </c>
       <c r="V18" s="1">
         <v>13.918104</v>
       </c>
       <c r="W18" s="1">
-        <v>1211.800000</v>
+        <v>1211.8</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.874000</v>
+        <v>-106.874</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>50115.595646</v>
+        <v>50115.595646000002</v>
       </c>
       <c r="AA18" s="1">
         <v>13.920999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1219.020000</v>
+        <v>1219.02</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.074300</v>
+        <v>-90.074299999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>50126.377175</v>
+        <v>50126.377175000001</v>
       </c>
       <c r="AF18" s="1">
         <v>13.923994</v>
       </c>
       <c r="AG18" s="1">
-        <v>1223.630000</v>
+        <v>1223.6300000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.963500</v>
+        <v>-85.963499999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>50136.900271</v>
+        <v>50136.900270999999</v>
       </c>
       <c r="AK18" s="1">
         <v>13.926917</v>
       </c>
       <c r="AL18" s="1">
-        <v>1230.720000</v>
+        <v>1230.72</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.603000</v>
+        <v>-89.602999999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>50147.852927</v>
@@ -4713,814 +5129,814 @@
         <v>13.929959</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1238.680000</v>
+        <v>1238.68</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.808000</v>
+        <v>-101.80800000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>50158.966290</v>
+        <v>50158.966289999997</v>
       </c>
       <c r="AU18" s="1">
-        <v>13.933046</v>
+        <v>13.933045999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.488000</v>
+        <v>-121.488</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>50169.927911</v>
+        <v>50169.927910999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>13.936091</v>
+        <v>13.936090999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1257.160000</v>
+        <v>1257.1600000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.222000</v>
+        <v>-139.22200000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>50180.889956</v>
+        <v>50180.889955999999</v>
       </c>
       <c r="BE18" s="1">
         <v>13.939136</v>
       </c>
       <c r="BF18" s="1">
-        <v>1297.620000</v>
+        <v>1297.6199999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.080000</v>
+        <v>-222.08</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>50191.780149</v>
+        <v>50191.780148999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>13.942161</v>
       </c>
       <c r="BK18" s="1">
-        <v>1367.850000</v>
+        <v>1367.85</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.829000</v>
+        <v>-359.82900000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>50202.277978</v>
+        <v>50202.277977999998</v>
       </c>
       <c r="BO18" s="1">
         <v>13.945077</v>
       </c>
       <c r="BP18" s="1">
-        <v>1483.180000</v>
+        <v>1483.18</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-584.142000</v>
+        <v>-584.14200000000005</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>50212.878486</v>
+        <v>50212.878486000001</v>
       </c>
       <c r="BT18" s="1">
         <v>13.948022</v>
       </c>
       <c r="BU18" s="1">
-        <v>1615.910000</v>
+        <v>1615.91</v>
       </c>
       <c r="BV18" s="1">
-        <v>-837.706000</v>
+        <v>-837.70600000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>50223.819227</v>
       </c>
       <c r="BY18" s="1">
-        <v>13.951061</v>
+        <v>13.951060999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1769.980000</v>
+        <v>1769.98</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1112.650000</v>
+        <v>-1112.6500000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>50236.278238</v>
+        <v>50236.278237999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>13.954522</v>
+        <v>13.954522000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2192.160000</v>
+        <v>2192.16</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1778.750000</v>
+        <v>-1778.75</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>50064.583070</v>
+        <v>50064.583070000001</v>
       </c>
       <c r="B19" s="1">
         <v>13.906829</v>
       </c>
       <c r="C19" s="1">
-        <v>1148.960000</v>
+        <v>1148.96</v>
       </c>
       <c r="D19" s="1">
-        <v>-255.231000</v>
+        <v>-255.23099999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>50074.673185</v>
       </c>
       <c r="G19" s="1">
-        <v>13.909631</v>
+        <v>13.909630999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1169.340000</v>
+        <v>1169.3399999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-214.221000</v>
+        <v>-214.221</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>50084.808434</v>
+        <v>50084.808433999999</v>
       </c>
       <c r="L19" s="1">
         <v>13.912447</v>
       </c>
       <c r="M19" s="1">
-        <v>1196.880000</v>
+        <v>1196.8800000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-149.337000</v>
+        <v>-149.33699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>50095.043417</v>
+        <v>50095.043417000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>13.915290</v>
+        <v>13.915290000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1204.630000</v>
+        <v>1204.6300000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.481000</v>
+        <v>-127.48099999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>50105.519383</v>
+        <v>50105.519382999999</v>
       </c>
       <c r="V19" s="1">
-        <v>13.918200</v>
+        <v>13.918200000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1211.610000</v>
+        <v>1211.6099999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.858000</v>
+        <v>-106.858</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>50116.256777</v>
+        <v>50116.256777000002</v>
       </c>
       <c r="AA19" s="1">
         <v>13.921182</v>
       </c>
       <c r="AB19" s="1">
-        <v>1219.170000</v>
+        <v>1219.17</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.145400</v>
+        <v>-90.145399999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>50126.755100</v>
+        <v>50126.755100000002</v>
       </c>
       <c r="AF19" s="1">
         <v>13.924099</v>
       </c>
       <c r="AG19" s="1">
-        <v>1223.620000</v>
+        <v>1223.6199999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.936600</v>
+        <v>-85.936599999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>50137.290160</v>
+        <v>50137.290159999997</v>
       </c>
       <c r="AK19" s="1">
         <v>13.927025</v>
       </c>
       <c r="AL19" s="1">
-        <v>1230.710000</v>
+        <v>1230.71</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.604500</v>
+        <v>-89.604500000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>50148.217984</v>
+        <v>50148.217984000003</v>
       </c>
       <c r="AP19" s="1">
         <v>13.930061</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.847000</v>
+        <v>-101.84699999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>50159.330352</v>
+        <v>50159.330351999997</v>
       </c>
       <c r="AU19" s="1">
         <v>13.933147</v>
       </c>
       <c r="AV19" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.472000</v>
+        <v>-121.47199999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>50170.287971</v>
+        <v>50170.287970999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>13.936191</v>
+        <v>13.936191000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1257.210000</v>
+        <v>1257.21</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.244000</v>
+        <v>-139.244</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>50181.309075</v>
+        <v>50181.309074999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>13.939253</v>
+        <v>13.939253000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1297.660000</v>
+        <v>1297.6600000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.076000</v>
+        <v>-222.07599999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>50192.250863</v>
+        <v>50192.250863000001</v>
       </c>
       <c r="BJ19" s="1">
         <v>13.942292</v>
       </c>
       <c r="BK19" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.831000</v>
+        <v>-359.83100000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>50202.675772</v>
+        <v>50202.675772000002</v>
       </c>
       <c r="BO19" s="1">
         <v>13.945188</v>
       </c>
       <c r="BP19" s="1">
-        <v>1483.130000</v>
+        <v>1483.13</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-584.111000</v>
+        <v>-584.11099999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>50213.289642</v>
+        <v>50213.289642000003</v>
       </c>
       <c r="BT19" s="1">
         <v>13.948136</v>
       </c>
       <c r="BU19" s="1">
-        <v>1615.920000</v>
+        <v>1615.92</v>
       </c>
       <c r="BV19" s="1">
-        <v>-837.760000</v>
+        <v>-837.76</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>50224.242283</v>
       </c>
       <c r="BY19" s="1">
-        <v>13.951178</v>
+        <v>13.951178000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1769.870000</v>
+        <v>1769.87</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1112.700000</v>
+        <v>-1112.7</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>50236.799994</v>
+        <v>50236.799994000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>13.954667</v>
+        <v>13.954667000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2191.470000</v>
+        <v>2191.4699999999998</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1780.860000</v>
+        <v>-1780.86</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>50064.923325</v>
+        <v>50064.923325000003</v>
       </c>
       <c r="B20" s="1">
-        <v>13.906923</v>
+        <v>13.906923000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1149.000000</v>
+        <v>1149</v>
       </c>
       <c r="D20" s="1">
-        <v>-254.980000</v>
+        <v>-254.98</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>50075.021376</v>
+        <v>50075.021375999997</v>
       </c>
       <c r="G20" s="1">
-        <v>13.909728</v>
+        <v>13.909727999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1170.210000</v>
+        <v>1170.21</v>
       </c>
       <c r="I20" s="1">
-        <v>-213.861000</v>
+        <v>-213.86099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>50085.152029</v>
+        <v>50085.152028999997</v>
       </c>
       <c r="L20" s="1">
         <v>13.912542</v>
       </c>
       <c r="M20" s="1">
-        <v>1196.900000</v>
+        <v>1196.9000000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.230000</v>
+        <v>-149.22999999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>50095.701572</v>
+        <v>50095.701571999998</v>
       </c>
       <c r="Q20" s="1">
         <v>13.915473</v>
       </c>
       <c r="R20" s="1">
-        <v>1204.580000</v>
+        <v>1204.58</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.519000</v>
+        <v>-127.51900000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>50106.167668</v>
+        <v>50106.167668000002</v>
       </c>
       <c r="V20" s="1">
-        <v>13.918380</v>
+        <v>13.918380000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1211.670000</v>
+        <v>1211.67</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.852000</v>
+        <v>-106.852</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>50116.641176</v>
+        <v>50116.641175999997</v>
       </c>
       <c r="AA20" s="1">
         <v>13.921289</v>
       </c>
       <c r="AB20" s="1">
-        <v>1219.110000</v>
+        <v>1219.1099999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.197000</v>
+        <v>-90.197000000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>50127.100315</v>
+        <v>50127.100315000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>13.924195</v>
+        <v>13.924194999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1223.670000</v>
+        <v>1223.67</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.933500</v>
+        <v>-85.933499999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>50137.640798</v>
       </c>
       <c r="AK20" s="1">
-        <v>13.927122</v>
+        <v>13.927122000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1230.700000</v>
+        <v>1230.7</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.613800</v>
+        <v>-89.613799999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>50148.577620</v>
+        <v>50148.577619999996</v>
       </c>
       <c r="AP20" s="1">
-        <v>13.930160</v>
+        <v>13.930160000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1238.650000</v>
+        <v>1238.6500000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.850000</v>
+        <v>-101.85</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>50159.741536</v>
+        <v>50159.741536000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>13.933262</v>
+        <v>13.933261999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.500000</v>
+        <v>-121.5</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>50170.700641</v>
+        <v>50170.700641000003</v>
       </c>
       <c r="AZ20" s="1">
         <v>13.936306</v>
       </c>
       <c r="BA20" s="1">
-        <v>1257.190000</v>
+        <v>1257.19</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.213000</v>
+        <v>-139.21299999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>50181.611667</v>
+        <v>50181.611666999997</v>
       </c>
       <c r="BE20" s="1">
         <v>13.939337</v>
       </c>
       <c r="BF20" s="1">
-        <v>1297.640000</v>
+        <v>1297.6400000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.053000</v>
+        <v>-222.053</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>50192.571274</v>
+        <v>50192.571274000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>13.942381</v>
+        <v>13.942380999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1367.890000</v>
+        <v>1367.89</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.819000</v>
+        <v>-359.81900000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>50203.097866</v>
+        <v>50203.097865999996</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.945305</v>
+        <v>13.945304999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1483.110000</v>
+        <v>1483.11</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-584.109000</v>
+        <v>-584.10900000000004</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>50213.722633</v>
+        <v>50213.722632999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>13.948256</v>
+        <v>13.948256000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1615.910000</v>
+        <v>1615.91</v>
       </c>
       <c r="BV20" s="1">
-        <v>-837.799000</v>
+        <v>-837.79899999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>50224.664380</v>
+        <v>50224.664380000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>13.951296</v>
+        <v>13.951295999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1769.990000</v>
+        <v>1769.99</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1112.820000</v>
+        <v>-1112.82</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>50237.317354</v>
+        <v>50237.317353999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>13.954810</v>
+        <v>13.95481</v>
       </c>
       <c r="CE20" s="1">
-        <v>2191.600000</v>
+        <v>2191.6</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1780.590000</v>
+        <v>-1780.59</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>50065.267549</v>
+        <v>50065.267548999997</v>
       </c>
       <c r="B21" s="1">
         <v>13.907019</v>
       </c>
       <c r="C21" s="1">
-        <v>1149.060000</v>
+        <v>1149.06</v>
       </c>
       <c r="D21" s="1">
-        <v>-255.482000</v>
+        <v>-255.482</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>50075.683536</v>
+        <v>50075.683535999997</v>
       </c>
       <c r="G21" s="1">
         <v>13.909912</v>
       </c>
       <c r="H21" s="1">
-        <v>1169.940000</v>
+        <v>1169.94</v>
       </c>
       <c r="I21" s="1">
-        <v>-214.428000</v>
+        <v>-214.428</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>50085.815345</v>
+        <v>50085.815345000003</v>
       </c>
       <c r="L21" s="1">
-        <v>13.912726</v>
+        <v>13.912725999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1196.950000</v>
+        <v>1196.95</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.145000</v>
+        <v>-149.14500000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>50096.092916</v>
+        <v>50096.092916000001</v>
       </c>
       <c r="Q21" s="1">
         <v>13.915581</v>
       </c>
       <c r="R21" s="1">
-        <v>1204.550000</v>
+        <v>1204.55</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.577000</v>
+        <v>-127.577</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>50106.550567</v>
+        <v>50106.550566999998</v>
       </c>
       <c r="V21" s="1">
         <v>13.918486</v>
       </c>
       <c r="W21" s="1">
-        <v>1211.790000</v>
+        <v>1211.79</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.013000</v>
+        <v>-107.01300000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>50116.991362</v>
+        <v>50116.991362000001</v>
       </c>
       <c r="AA21" s="1">
         <v>13.921386</v>
       </c>
       <c r="AB21" s="1">
-        <v>1219.160000</v>
+        <v>1219.1600000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.162900</v>
+        <v>-90.162899999999993</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>50127.443052</v>
+        <v>50127.443052000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>13.924290</v>
+        <v>13.924289999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1223.660000</v>
+        <v>1223.6600000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.937200</v>
+        <v>-85.937200000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>50137.988989</v>
+        <v>50137.988988999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>13.927219</v>
+        <v>13.927218999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1230.730000</v>
+        <v>1230.73</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.581800</v>
+        <v>-89.581800000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>50149.000174</v>
+        <v>50149.000174000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>13.930278</v>
+        <v>13.930277999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1238.660000</v>
+        <v>1238.6600000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.823000</v>
+        <v>-101.82299999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>50160.055544</v>
+        <v>50160.055544000003</v>
       </c>
       <c r="AU21" s="1">
         <v>13.933349</v>
       </c>
       <c r="AV21" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.458000</v>
+        <v>-121.458</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>50171.007195</v>
+        <v>50171.007194999998</v>
       </c>
       <c r="AZ21" s="1">
         <v>13.936391</v>
       </c>
       <c r="BA21" s="1">
-        <v>1257.150000</v>
+        <v>1257.1500000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.206000</v>
+        <v>-139.20599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>50181.973715</v>
@@ -5529,300 +5945,300 @@
         <v>13.939437</v>
       </c>
       <c r="BF21" s="1">
-        <v>1297.620000</v>
+        <v>1297.6199999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.058000</v>
+        <v>-222.05799999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>50192.949220</v>
+        <v>50192.949220000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>13.942486</v>
+        <v>13.942486000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1367.860000</v>
+        <v>1367.86</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.790000</v>
+        <v>-359.79</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>50203.495127</v>
+        <v>50203.495127000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>13.945415</v>
+        <v>13.945415000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1483.090000</v>
+        <v>1483.09</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-584.099000</v>
+        <v>-584.09900000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>50214.147207</v>
+        <v>50214.147207000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>13.948374</v>
+        <v>13.948373999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1616.010000</v>
+        <v>1616.01</v>
       </c>
       <c r="BV21" s="1">
-        <v>-837.886000</v>
+        <v>-837.88599999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>50225.111769</v>
+        <v>50225.111769000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>13.951420</v>
+        <v>13.951420000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1770.120000</v>
+        <v>1770.12</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1112.590000</v>
+        <v>-1112.5899999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>50237.866425</v>
       </c>
       <c r="CD21" s="1">
-        <v>13.954963</v>
+        <v>13.954962999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2190.980000</v>
+        <v>2190.98</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1779.280000</v>
+        <v>-1779.28</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>50065.920294</v>
+        <v>50065.920294000003</v>
       </c>
       <c r="B22" s="1">
-        <v>13.907200</v>
+        <v>13.9072</v>
       </c>
       <c r="C22" s="1">
-        <v>1148.700000</v>
+        <v>1148.7</v>
       </c>
       <c r="D22" s="1">
-        <v>-255.117000</v>
+        <v>-255.11699999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>50076.056526</v>
       </c>
       <c r="G22" s="1">
-        <v>13.910016</v>
+        <v>13.910016000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1169.000000</v>
+        <v>1169</v>
       </c>
       <c r="I22" s="1">
-        <v>-214.679000</v>
+        <v>-214.679</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>50086.191313</v>
+        <v>50086.191313000003</v>
       </c>
       <c r="L22" s="1">
-        <v>13.912831</v>
+        <v>13.912831000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1197.040000</v>
+        <v>1197.04</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.426000</v>
+        <v>-149.42599999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>50096.440611</v>
+        <v>50096.440610999998</v>
       </c>
       <c r="Q22" s="1">
         <v>13.915678</v>
       </c>
       <c r="R22" s="1">
-        <v>1204.510000</v>
+        <v>1204.51</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.531000</v>
+        <v>-127.53100000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>50106.895285</v>
+        <v>50106.895284999999</v>
       </c>
       <c r="V22" s="1">
-        <v>13.918582</v>
+        <v>13.918582000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1211.890000</v>
+        <v>1211.8900000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.990000</v>
+        <v>-106.99</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>50117.342551</v>
+        <v>50117.342551000002</v>
       </c>
       <c r="AA22" s="1">
         <v>13.921484</v>
       </c>
       <c r="AB22" s="1">
-        <v>1219.100000</v>
+        <v>1219.0999999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.227900</v>
+        <v>-90.227900000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>50127.862204</v>
+        <v>50127.862203999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>13.924406</v>
+        <v>13.924405999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1223.710000</v>
+        <v>1223.71</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.914900</v>
+        <v>-85.914900000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>50138.408140</v>
+        <v>50138.40814</v>
       </c>
       <c r="AK22" s="1">
         <v>13.927336</v>
       </c>
       <c r="AL22" s="1">
-        <v>1230.730000</v>
+        <v>1230.73</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.596900</v>
+        <v>-89.596900000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>50149.298301</v>
+        <v>50149.298301000003</v>
       </c>
       <c r="AP22" s="1">
         <v>13.930361</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1238.650000</v>
+        <v>1238.6500000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.840000</v>
+        <v>-101.84</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>50160.426051</v>
+        <v>50160.426051000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.933452</v>
+        <v>13.933452000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1248.700000</v>
+        <v>1248.7</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.511000</v>
+        <v>-121.511</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>50171.364785</v>
+        <v>50171.364784999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>13.936490</v>
+        <v>13.936489999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1257.180000</v>
+        <v>1257.18</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.226000</v>
+        <v>-139.226</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>50182.335298</v>
+        <v>50182.335297999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>13.939538</v>
+        <v>13.939538000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1297.600000</v>
+        <v>1297.5999999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.060000</v>
+        <v>-222.06</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>50193.696164</v>
+        <v>50193.696164000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>13.942693</v>
       </c>
       <c r="BK22" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.830000</v>
+        <v>-359.83</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>50203.915273</v>
+        <v>50203.915272999999</v>
       </c>
       <c r="BO22" s="1">
         <v>13.945532</v>
       </c>
       <c r="BP22" s="1">
-        <v>1483.160000</v>
+        <v>1483.16</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-584.195000</v>
+        <v>-584.19500000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>50214.553431</v>
@@ -5831,135 +6247,135 @@
         <v>13.948487</v>
       </c>
       <c r="BU22" s="1">
-        <v>1615.990000</v>
+        <v>1615.99</v>
       </c>
       <c r="BV22" s="1">
-        <v>-837.867000</v>
+        <v>-837.86699999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>50225.507614</v>
+        <v>50225.507614000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>13.951530</v>
+        <v>13.95153</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1770.010000</v>
+        <v>1770.01</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1112.610000</v>
+        <v>-1112.6099999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>50238.397111</v>
+        <v>50238.397110999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>13.955110</v>
+        <v>13.955109999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2192.520000</v>
+        <v>2192.52</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1781.100000</v>
+        <v>-1781.1</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>50066.288811</v>
+        <v>50066.288810999999</v>
       </c>
       <c r="B23" s="1">
         <v>13.907302</v>
       </c>
       <c r="C23" s="1">
-        <v>1148.810000</v>
+        <v>1148.81</v>
       </c>
       <c r="D23" s="1">
-        <v>-255.155000</v>
+        <v>-255.155</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>50076.402891</v>
+        <v>50076.402890999998</v>
       </c>
       <c r="G23" s="1">
         <v>13.910112</v>
       </c>
       <c r="H23" s="1">
-        <v>1169.010000</v>
+        <v>1169.01</v>
       </c>
       <c r="I23" s="1">
-        <v>-214.486000</v>
+        <v>-214.48599999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>50086.536992</v>
+        <v>50086.536992000001</v>
       </c>
       <c r="L23" s="1">
         <v>13.912927</v>
       </c>
       <c r="M23" s="1">
-        <v>1196.880000</v>
+        <v>1196.8800000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.980000</v>
+        <v>-148.97999999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>50096.787811</v>
+        <v>50096.787811000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>13.915774</v>
+        <v>13.915774000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1204.590000</v>
+        <v>1204.5899999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.478000</v>
+        <v>-127.47799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>50107.243974</v>
+        <v>50107.243973999997</v>
       </c>
       <c r="V23" s="1">
-        <v>13.918679</v>
+        <v>13.918678999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1211.660000</v>
+        <v>1211.6600000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.975000</v>
+        <v>-106.97499999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>50117.768584</v>
+        <v>50117.768583999998</v>
       </c>
       <c r="AA23" s="1">
         <v>13.921602</v>
       </c>
       <c r="AB23" s="1">
-        <v>1218.980000</v>
+        <v>1218.98</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.200700</v>
+        <v>-90.200699999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>50128.131621</v>
@@ -5968,467 +6384,467 @@
         <v>13.924481</v>
       </c>
       <c r="AG23" s="1">
-        <v>1223.690000</v>
+        <v>1223.69</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.968200</v>
+        <v>-85.968199999999996</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>50138.695789</v>
+        <v>50138.695788999998</v>
       </c>
       <c r="AK23" s="1">
         <v>13.927415</v>
       </c>
       <c r="AL23" s="1">
-        <v>1230.730000</v>
+        <v>1230.73</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.573400</v>
+        <v>-89.573400000000007</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>50149.657901</v>
+        <v>50149.657900999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>13.930461</v>
+        <v>13.930460999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1238.630000</v>
+        <v>1238.6300000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.844000</v>
+        <v>-101.84399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>50160.788094</v>
+        <v>50160.788094000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>13.933552</v>
+        <v>13.933552000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1248.670000</v>
+        <v>1248.67</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.494000</v>
+        <v>-121.494</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>50171.723429</v>
+        <v>50171.723428999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>13.936590</v>
+        <v>13.936590000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1257.170000</v>
+        <v>1257.17</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.204000</v>
+        <v>-139.20400000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>50183.054993</v>
+        <v>50183.054992999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>13.939737</v>
+        <v>13.939736999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1297.630000</v>
+        <v>1297.6300000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.047000</v>
+        <v>-222.047</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>50194.076631</v>
+        <v>50194.076631000004</v>
       </c>
       <c r="BJ23" s="1">
-        <v>13.942799</v>
+        <v>13.942799000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1367.820000</v>
+        <v>1367.82</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.810000</v>
+        <v>-359.81</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>50204.311542</v>
+        <v>50204.311542000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>13.945642</v>
+        <v>13.945641999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1483.130000</v>
+        <v>1483.13</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-584.173000</v>
+        <v>-584.173</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>50214.992391</v>
       </c>
       <c r="BT23" s="1">
-        <v>13.948609</v>
+        <v>13.948608999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1616.190000</v>
+        <v>1616.19</v>
       </c>
       <c r="BV23" s="1">
-        <v>-837.941000</v>
+        <v>-837.94100000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>50225.954968</v>
+        <v>50225.954967999998</v>
       </c>
       <c r="BY23" s="1">
         <v>13.951654</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1769.820000</v>
+        <v>1769.82</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1112.890000</v>
+        <v>-1112.8900000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>50239.220502</v>
+        <v>50239.220501999996</v>
       </c>
       <c r="CD23" s="1">
         <v>13.955339</v>
       </c>
       <c r="CE23" s="1">
-        <v>2193.780000</v>
+        <v>2193.7800000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1779.740000</v>
+        <v>-1779.74</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>50066.634055</v>
+        <v>50066.634055000002</v>
       </c>
       <c r="B24" s="1">
-        <v>13.907398</v>
+        <v>13.907398000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1148.890000</v>
+        <v>1148.8900000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-254.961000</v>
+        <v>-254.96100000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>50076.745966</v>
+        <v>50076.745966000002</v>
       </c>
       <c r="G24" s="1">
         <v>13.910207</v>
       </c>
       <c r="H24" s="1">
-        <v>1169.410000</v>
+        <v>1169.4100000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-214.406000</v>
+        <v>-214.40600000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>50086.881744</v>
+        <v>50086.881743999998</v>
       </c>
       <c r="L24" s="1">
-        <v>13.913023</v>
+        <v>13.913023000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1196.830000</v>
+        <v>1196.83</v>
       </c>
       <c r="N24" s="1">
-        <v>-149.294000</v>
+        <v>-149.29400000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>50097.209447</v>
+        <v>50097.209447000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>13.915892</v>
+        <v>13.915891999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1204.550000</v>
+        <v>1204.55</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.463000</v>
+        <v>-127.46299999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>50107.664581</v>
+        <v>50107.664580999997</v>
       </c>
       <c r="V24" s="1">
         <v>13.918796</v>
       </c>
       <c r="W24" s="1">
-        <v>1211.720000</v>
+        <v>1211.72</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.974000</v>
+        <v>-106.974</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>50118.048959</v>
       </c>
       <c r="AA24" s="1">
-        <v>13.921680</v>
+        <v>13.92168</v>
       </c>
       <c r="AB24" s="1">
-        <v>1219.240000</v>
+        <v>1219.24</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.196400</v>
+        <v>-90.196399999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>50128.475722</v>
+        <v>50128.475722000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>13.924577</v>
+        <v>13.924576999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1223.720000</v>
+        <v>1223.72</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.867100</v>
+        <v>-85.867099999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>50139.047091</v>
       </c>
       <c r="AK24" s="1">
-        <v>13.927513</v>
+        <v>13.927512999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1230.700000</v>
+        <v>1230.7</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.609900</v>
+        <v>-89.609899999999996</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>50150.018460</v>
+        <v>50150.018459999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>13.930561</v>
+        <v>13.930561000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1238.670000</v>
+        <v>1238.67</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.850000</v>
+        <v>-101.85</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>50161.518735</v>
+        <v>50161.518734999998</v>
       </c>
       <c r="AU24" s="1">
         <v>13.933755</v>
       </c>
       <c r="AV24" s="1">
-        <v>1248.690000</v>
+        <v>1248.69</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.478000</v>
+        <v>-121.47799999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>50172.440639</v>
       </c>
       <c r="AZ24" s="1">
-        <v>13.936789</v>
+        <v>13.936788999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1257.170000</v>
+        <v>1257.17</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.240000</v>
+        <v>-139.24</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>50183.445842</v>
+        <v>50183.445842000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>13.939846</v>
+        <v>13.939845999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1297.620000</v>
+        <v>1297.6199999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.093000</v>
+        <v>-222.09299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>50194.450081</v>
+        <v>50194.450081000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>13.942903</v>
+        <v>13.942902999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1367.830000</v>
+        <v>1367.83</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.831000</v>
+        <v>-359.83100000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>50204.732149</v>
+        <v>50204.732149000003</v>
       </c>
       <c r="BO24" s="1">
-        <v>13.945759</v>
+        <v>13.945759000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1483.100000</v>
+        <v>1483.1</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-584.117000</v>
+        <v>-584.11699999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>50215.725477</v>
       </c>
       <c r="BT24" s="1">
-        <v>13.948813</v>
+        <v>13.948812999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1616.140000</v>
+        <v>1616.14</v>
       </c>
       <c r="BV24" s="1">
-        <v>-837.954000</v>
+        <v>-837.95399999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>50226.445548</v>
+        <v>50226.445548000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>13.951790</v>
+        <v>13.951790000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1770.060000</v>
+        <v>1770.06</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1112.820000</v>
+        <v>-1112.82</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>50239.431800</v>
+        <v>50239.431799999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>13.955398</v>
+        <v>13.955398000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2191.420000</v>
+        <v>2191.42</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1778.690000</v>
+        <v>-1778.69</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>50066.973817</v>
+        <v>50066.973816999998</v>
       </c>
       <c r="B25" s="1">
-        <v>13.907493</v>
+        <v>13.907493000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1148.780000</v>
+        <v>1148.78</v>
       </c>
       <c r="D25" s="1">
-        <v>-255.486000</v>
+        <v>-255.48599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>50077.163633</v>
+        <v>50077.163632999996</v>
       </c>
       <c r="G25" s="1">
         <v>13.910323</v>
       </c>
       <c r="H25" s="1">
-        <v>1169.450000</v>
+        <v>1169.45</v>
       </c>
       <c r="I25" s="1">
-        <v>-214.506000</v>
+        <v>-214.506</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>50087.298847</v>
+        <v>50087.298846999998</v>
       </c>
       <c r="L25" s="1">
-        <v>13.913139</v>
+        <v>13.913138999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1197.010000</v>
+        <v>1197.01</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.060000</v>
+        <v>-149.06</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>50097.490179</v>
@@ -6437,178 +6853,178 @@
         <v>13.915969</v>
       </c>
       <c r="R25" s="1">
-        <v>1204.610000</v>
+        <v>1204.6099999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.464000</v>
+        <v>-127.464</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>50107.945812</v>
+        <v>50107.945811999998</v>
       </c>
       <c r="V25" s="1">
-        <v>13.918874</v>
+        <v>13.918874000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1211.660000</v>
+        <v>1211.6600000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.063000</v>
+        <v>-107.063</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>50118.395062</v>
+        <v>50118.395062000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>13.921776</v>
+        <v>13.921775999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1219.000000</v>
+        <v>1219</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.194300</v>
+        <v>-90.194299999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>50128.819480</v>
+        <v>50128.819479999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>13.924672</v>
+        <v>13.924671999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1223.710000</v>
+        <v>1223.71</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.900500</v>
+        <v>-85.900499999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>50139.397226</v>
+        <v>50139.397226000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>13.927610</v>
+        <v>13.92761</v>
       </c>
       <c r="AL25" s="1">
-        <v>1230.720000</v>
+        <v>1230.72</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.626700</v>
+        <v>-89.6267</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>50150.743612</v>
+        <v>50150.743611999998</v>
       </c>
       <c r="AP25" s="1">
         <v>13.930762</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1238.650000</v>
+        <v>1238.6500000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.846000</v>
+        <v>-101.846</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>50161.908088</v>
+        <v>50161.908087999996</v>
       </c>
       <c r="AU25" s="1">
-        <v>13.933863</v>
+        <v>13.933863000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1248.680000</v>
+        <v>1248.68</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.488000</v>
+        <v>-121.488</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>50172.799742</v>
+        <v>50172.799742000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>13.936889</v>
+        <v>13.936889000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1257.210000</v>
+        <v>1257.21</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.218000</v>
+        <v>-139.21799999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>50183.830735</v>
+        <v>50183.830735000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>13.939953</v>
+        <v>13.939952999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1297.660000</v>
+        <v>1297.6600000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.091000</v>
+        <v>-222.09100000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>50195.139024</v>
+        <v>50195.139023999996</v>
       </c>
       <c r="BJ25" s="1">
         <v>13.943094</v>
       </c>
       <c r="BK25" s="1">
-        <v>1367.850000</v>
+        <v>1367.85</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.844000</v>
+        <v>-359.84399999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>50205.440435</v>
+        <v>50205.440434999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>13.945956</v>
+        <v>13.945956000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1483.150000</v>
+        <v>1483.15</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-584.164000</v>
+        <v>-584.16399999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>50215.865847</v>
+        <v>50215.865847000001</v>
       </c>
       <c r="BT25" s="1">
         <v>13.948852</v>
       </c>
       <c r="BU25" s="1">
-        <v>1616.260000</v>
+        <v>1616.26</v>
       </c>
       <c r="BV25" s="1">
-        <v>-837.950000</v>
+        <v>-837.95</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>50226.797176</v>
@@ -6617,45 +7033,45 @@
         <v>13.951888</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1769.820000</v>
+        <v>1769.82</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1112.660000</v>
+        <v>-1112.6600000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>50239.952567</v>
       </c>
       <c r="CD25" s="1">
-        <v>13.955542</v>
+        <v>13.955541999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>2191.870000</v>
+        <v>2191.87</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1778.430000</v>
+        <v>-1778.43</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>50067.396912</v>
+        <v>50067.396911999997</v>
       </c>
       <c r="B26" s="1">
-        <v>13.907610</v>
+        <v>13.90761</v>
       </c>
       <c r="C26" s="1">
-        <v>1148.920000</v>
+        <v>1148.92</v>
       </c>
       <c r="D26" s="1">
-        <v>-255.202000</v>
+        <v>-255.202</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>50077.444828</v>
@@ -6664,240 +7080,241 @@
         <v>13.910401</v>
       </c>
       <c r="H26" s="1">
-        <v>1169.440000</v>
+        <v>1169.44</v>
       </c>
       <c r="I26" s="1">
-        <v>-214.722000</v>
+        <v>-214.72200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>50087.592976</v>
       </c>
       <c r="L26" s="1">
-        <v>13.913220</v>
+        <v>13.913220000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1196.930000</v>
+        <v>1196.93</v>
       </c>
       <c r="N26" s="1">
-        <v>-149.186000</v>
+        <v>-149.18600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>50097.840861</v>
+        <v>50097.840860999997</v>
       </c>
       <c r="Q26" s="1">
         <v>13.916067</v>
       </c>
       <c r="R26" s="1">
-        <v>1204.630000</v>
+        <v>1204.6300000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.510000</v>
+        <v>-127.51</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>50108.289045</v>
+        <v>50108.289044999998</v>
       </c>
       <c r="V26" s="1">
-        <v>13.918969</v>
+        <v>13.918969000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1211.780000</v>
+        <v>1211.78</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.779000</v>
+        <v>-106.779</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>50118.742231</v>
+        <v>50118.742230999997</v>
       </c>
       <c r="AA26" s="1">
         <v>13.921873</v>
       </c>
       <c r="AB26" s="1">
-        <v>1219.080000</v>
+        <v>1219.08</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.132400</v>
+        <v>-90.132400000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>50129.505448</v>
+        <v>50129.505448000004</v>
       </c>
       <c r="AF26" s="1">
         <v>13.924863</v>
       </c>
       <c r="AG26" s="1">
-        <v>1223.660000</v>
+        <v>1223.6600000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.866000</v>
+        <v>-85.866</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>50140.093546</v>
+        <v>50140.093545999996</v>
       </c>
       <c r="AK26" s="1">
         <v>13.927804</v>
       </c>
       <c r="AL26" s="1">
-        <v>1230.720000</v>
+        <v>1230.72</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.601300</v>
+        <v>-89.601299999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>50151.121568</v>
+        <v>50151.121568000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>13.930867</v>
+        <v>13.930866999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1238.640000</v>
+        <v>1238.6400000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.833000</v>
+        <v>-101.833</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>50162.272622</v>
+        <v>50162.272621999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>13.933965</v>
+        <v>13.933965000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1248.670000</v>
+        <v>1248.67</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.506000</v>
+        <v>-121.506</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>50173.158846</v>
+        <v>50173.158845999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>13.936989</v>
+        <v>13.936989000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1257.210000</v>
+        <v>1257.21</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.217000</v>
+        <v>-139.21700000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>50184.505296</v>
+        <v>50184.505296000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>13.940140</v>
+        <v>13.94014</v>
       </c>
       <c r="BF26" s="1">
-        <v>1297.650000</v>
+        <v>1297.6500000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.098000</v>
+        <v>-222.09800000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>50195.248641</v>
+        <v>50195.248640999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>13.943125</v>
       </c>
       <c r="BK26" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.833000</v>
+        <v>-359.83300000000003</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>50205.549555</v>
+        <v>50205.549554999998</v>
       </c>
       <c r="BO26" s="1">
         <v>13.945986</v>
       </c>
       <c r="BP26" s="1">
-        <v>1483.140000</v>
+        <v>1483.14</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-584.130000</v>
+        <v>-584.13</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>50216.278053</v>
+        <v>50216.278053000002</v>
       </c>
       <c r="BT26" s="1">
         <v>13.948966</v>
       </c>
       <c r="BU26" s="1">
-        <v>1616.290000</v>
+        <v>1616.29</v>
       </c>
       <c r="BV26" s="1">
-        <v>-837.974000</v>
+        <v>-837.97400000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>50227.220299</v>
+        <v>50227.220299000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>13.952006</v>
+        <v>13.952006000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1770.090000</v>
+        <v>1770.09</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1112.710000</v>
+        <v>-1112.71</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>50240.500180</v>
+        <v>50240.500180000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>13.955694</v>
+        <v>13.955693999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>2193.350000</v>
+        <v>2193.35</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1779.060000</v>
+        <v>-1779.06</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>